--- a/Community/Damage_Assessment.xlsx
+++ b/Community/Damage_Assessment.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchell\Documents\Survey123 Samples and Templates\Community Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil9289\Downloads\Survey123\Community\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13180" tabRatio="203"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13185" tabRatio="203" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="916">
   <si>
     <t>type</t>
   </si>
@@ -828,18 +828,12 @@
     <t>submission_url</t>
   </si>
   <si>
-    <t>ReportDate</t>
-  </si>
-  <si>
     <t>When was this assesment created?</t>
   </si>
   <si>
     <t>select_one types</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>What is this assesment about?</t>
   </si>
   <si>
@@ -849,33 +843,21 @@
     <t>select_one levels</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>What is the severity of the damage?</t>
   </si>
   <si>
     <t>select_multiple needs or other</t>
   </si>
   <si>
-    <t>Needs</t>
-  </si>
-  <si>
     <t>Needs Assesment</t>
   </si>
   <si>
-    <t>${Type}='Building'</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
     <t>Photo</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>Any additional remarks?</t>
   </si>
   <si>
@@ -921,9 +903,6 @@
     <t>Damage Assesment</t>
   </si>
   <si>
-    <t>concat(${Type}, " Remarks: " , ${Note})</t>
-  </si>
-  <si>
     <t>default_language</t>
   </si>
   <si>
@@ -2773,13 +2752,31 @@
   </si>
   <si>
     <t>XMLVALIDATE</t>
+  </si>
+  <si>
+    <t>reportdate</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>${type}='Building'</t>
+  </si>
+  <si>
+    <t>concat(${type}, " Remarks: " , ${note})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3589,20 +3586,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.453125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="1"/>
-    <col min="6" max="6" width="24.453125" style="1"/>
+    <col min="1" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="1"/>
+    <col min="6" max="6" width="24.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="27" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3684,15 +3681,15 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="16.5" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>268</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>269</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
@@ -3722,15 +3719,15 @@
       <c r="AA2" s="29"/>
       <c r="AB2" s="29"/>
     </row>
-    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="16.5" customHeight="1">
       <c r="A3" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>270</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>272</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -3740,7 +3737,7 @@
         <v>50</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
@@ -3761,15 +3758,15 @@
       <c r="AA3" s="29"/>
       <c r="AB3" s="29"/>
     </row>
-    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="16.5" customHeight="1">
       <c r="A4" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>275</v>
+        <v>911</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
@@ -3798,15 +3795,15 @@
       <c r="AA4" s="29"/>
       <c r="AB4" s="29"/>
     </row>
-    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="16.5" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -3818,7 +3815,7 @@
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29" t="s">
-        <v>280</v>
+        <v>914</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
@@ -3837,15 +3834,15 @@
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
     </row>
-    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="16.5" customHeight="1">
       <c r="A6" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>281</v>
+        <v>912</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
@@ -3872,15 +3869,15 @@
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
     </row>
-    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="16.5" customHeight="1">
       <c r="A7" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>282</v>
+        <v>913</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
@@ -3907,15 +3904,15 @@
       <c r="AA7" s="29"/>
       <c r="AB7" s="29"/>
     </row>
-    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="16.5" customHeight="1">
       <c r="A8" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
@@ -4025,15 +4022,15 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4050,7 +4047,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>15</v>
       </c>
@@ -4062,7 +4059,7 @@
       </c>
       <c r="D2" s="31"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
@@ -4074,7 +4071,7 @@
       </c>
       <c r="D3" s="31"/>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" s="31" t="s">
         <v>106</v>
       </c>
@@ -4086,7 +4083,7 @@
       </c>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" s="31" t="s">
         <v>106</v>
       </c>
@@ -4098,7 +4095,7 @@
       </c>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="A7" s="31" t="s">
         <v>106</v>
       </c>
@@ -4110,7 +4107,7 @@
       </c>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>106</v>
       </c>
@@ -4122,7 +4119,7 @@
       </c>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>106</v>
       </c>
@@ -4134,118 +4131,118 @@
       </c>
       <c r="D9" s="31"/>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1">
       <c r="A12" s="31" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1">
       <c r="A13" s="31" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1">
       <c r="A14" s="31" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1">
       <c r="A15" s="31" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D15" s="31"/>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B17" s="31">
         <v>1</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
       <c r="A18" s="31" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B18" s="31">
         <v>2</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
       <c r="A19" s="31" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B19" s="31">
         <v>3</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" customHeight="1">
       <c r="A21" s="31" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="12.75" customHeight="1">
       <c r="A22" s="31" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12.75" customHeight="1">
       <c r="A23" s="31" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4263,20 +4260,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -4290,19 +4287,19 @@
         <v>267</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="C7" s="11"/>
     </row>
   </sheetData>
@@ -4318,14 +4315,14 @@
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="74.54296875" customWidth="1"/>
-    <col min="3" max="3" width="52.81640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="32"/>
       <c r="B1" s="32"/>
       <c r="D1" s="32"/>
@@ -4338,7 +4335,7 @@
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
     </row>
-    <row r="2" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="14" t="s">
         <v>43</v>
       </c>
@@ -4353,7 +4350,7 @@
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="30" t="s">
         <v>24</v>
       </c>
@@ -4370,7 +4367,7 @@
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>23</v>
       </c>
@@ -4389,7 +4386,7 @@
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>20</v>
       </c>
@@ -4408,7 +4405,7 @@
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="25.5">
       <c r="A6" s="30" t="s">
         <v>45</v>
       </c>
@@ -4427,7 +4424,7 @@
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="25.5">
       <c r="A7" s="30" t="s">
         <v>46</v>
       </c>
@@ -4446,7 +4443,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
         <v>28</v>
       </c>
@@ -4465,7 +4462,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
         <v>21</v>
       </c>
@@ -4482,7 +4479,7 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
         <v>22</v>
       </c>
@@ -4499,7 +4496,7 @@
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
         <v>32</v>
       </c>
@@ -4516,7 +4513,7 @@
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
         <v>259</v>
       </c>
@@ -4533,7 +4530,7 @@
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
         <v>10</v>
       </c>
@@ -4550,7 +4547,7 @@
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
         <v>35</v>
       </c>
@@ -4567,7 +4564,7 @@
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
         <v>36</v>
       </c>
@@ -4584,7 +4581,7 @@
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
         <v>37</v>
       </c>
@@ -4601,7 +4598,7 @@
       <c r="K16" s="32"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
         <v>38</v>
       </c>
@@ -4618,7 +4615,7 @@
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="25.5">
       <c r="A18" s="30" t="s">
         <v>122</v>
       </c>
@@ -4635,7 +4632,7 @@
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="25.5">
       <c r="A19" s="30" t="s">
         <v>227</v>
       </c>
@@ -4652,7 +4649,7 @@
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="25.5">
       <c r="A20" s="30" t="s">
         <v>228</v>
       </c>
@@ -4669,7 +4666,7 @@
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="38.25">
       <c r="A21" s="30" t="s">
         <v>240</v>
       </c>
@@ -4686,7 +4683,7 @@
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
         <v>256</v>
       </c>
@@ -4703,7 +4700,7 @@
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
         <v>221</v>
       </c>
@@ -4720,7 +4717,7 @@
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
         <v>222</v>
       </c>
@@ -4737,7 +4734,7 @@
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="32"/>
       <c r="B25" s="32"/>
       <c r="D25" s="32"/>
@@ -4750,7 +4747,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="14" t="s">
         <v>44</v>
       </c>
@@ -4765,7 +4762,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="32"/>
       <c r="B27" s="30" t="s">
         <v>51</v>
@@ -4780,7 +4777,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="32" t="s">
         <v>11</v>
       </c>
@@ -4797,7 +4794,7 @@
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="32"/>
       <c r="B29" s="30"/>
       <c r="D29" s="32"/>
@@ -4810,7 +4807,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
-    <row r="30" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="14" t="s">
         <v>113</v>
       </c>
@@ -4825,7 +4822,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="32"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="32"/>
       <c r="B31" s="30" t="s">
         <v>114</v>
@@ -4840,7 +4837,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="32" t="s">
         <v>11</v>
       </c>
@@ -4857,7 +4854,7 @@
       <c r="K32" s="32"/>
       <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="D33" s="32"/>
@@ -4870,7 +4867,7 @@
       <c r="K33" s="32"/>
       <c r="L33" s="32"/>
     </row>
-    <row r="34" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="14" t="s">
         <v>49</v>
       </c>
@@ -4885,7 +4882,7 @@
       <c r="K34" s="32"/>
       <c r="L34" s="32"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="25" t="s">
         <v>238</v>
       </c>
@@ -4902,12 +4899,12 @@
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
@@ -4919,7 +4916,7 @@
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="32" t="s">
         <v>125</v>
       </c>
@@ -4936,7 +4933,7 @@
       <c r="K37" s="32"/>
       <c r="L37" s="32"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="32" t="s">
         <v>250</v>
       </c>
@@ -4953,7 +4950,7 @@
       <c r="K38" s="32"/>
       <c r="L38" s="32"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="32" t="s">
         <v>254</v>
       </c>
@@ -4970,7 +4967,7 @@
       <c r="K39" s="32"/>
       <c r="L39" s="32"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="32" t="s">
         <v>255</v>
       </c>
@@ -4987,7 +4984,7 @@
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="32" t="s">
         <v>261</v>
       </c>
@@ -5004,7 +5001,7 @@
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="32" t="s">
         <v>252</v>
       </c>
@@ -5021,12 +5018,12 @@
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="32" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
@@ -5038,12 +5035,12 @@
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="32" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
@@ -5055,12 +5052,12 @@
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="32" t="s">
         <v>124</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
@@ -5072,7 +5069,7 @@
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="32" t="s">
         <v>127</v>
       </c>
@@ -5089,12 +5086,12 @@
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="32" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
@@ -5106,7 +5103,7 @@
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="D48" s="32"/>
@@ -5119,7 +5116,7 @@
       <c r="K48" s="32"/>
       <c r="L48" s="32"/>
     </row>
-    <row r="49" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="14" t="s">
         <v>117</v>
       </c>
@@ -5134,7 +5131,7 @@
       <c r="K49" s="32"/>
       <c r="L49" s="32"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="32" t="s">
         <v>118</v>
       </c>
@@ -5151,7 +5148,7 @@
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="32" t="s">
         <v>119</v>
       </c>
@@ -5168,7 +5165,7 @@
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="D52" s="32"/>
@@ -5181,7 +5178,7 @@
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
     </row>
-    <row r="53" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="14" t="s">
         <v>243</v>
       </c>
@@ -5198,7 +5195,7 @@
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="32"/>
       <c r="B54" s="32" t="s">
         <v>245</v>
@@ -5213,7 +5210,7 @@
       <c r="K54" s="32"/>
       <c r="L54" s="32"/>
     </row>
-    <row r="55" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="8" customFormat="1">
       <c r="A55" s="14"/>
       <c r="B55" s="32"/>
       <c r="C55" s="5"/>
@@ -5227,7 +5224,7 @@
       <c r="K55" s="32"/>
       <c r="L55" s="32"/>
     </row>
-    <row r="56" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="14" t="s">
         <v>102</v>
       </c>
@@ -5244,7 +5241,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="9" t="s">
         <v>59</v>
       </c>
@@ -5264,7 +5261,7 @@
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="30" t="s">
         <v>62</v>
       </c>
@@ -5284,7 +5281,7 @@
       <c r="K58" s="32"/>
       <c r="L58" s="32"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="30" t="s">
         <v>65</v>
       </c>
@@ -5304,7 +5301,7 @@
       <c r="K59" s="32"/>
       <c r="L59" s="32"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="30" t="s">
         <v>68</v>
       </c>
@@ -5324,7 +5321,7 @@
       <c r="K60" s="32"/>
       <c r="L60" s="32"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="30" t="s">
         <v>70</v>
       </c>
@@ -5344,7 +5341,7 @@
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="30" t="s">
         <v>73</v>
       </c>
@@ -5364,7 +5361,7 @@
       <c r="K62" s="32"/>
       <c r="L62" s="32"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="30" t="s">
         <v>76</v>
       </c>
@@ -5384,7 +5381,7 @@
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="30" t="s">
         <v>79</v>
       </c>
@@ -5404,7 +5401,7 @@
       <c r="K64" s="32"/>
       <c r="L64" s="32"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="30" t="s">
         <v>82</v>
       </c>
@@ -5424,7 +5421,7 @@
       <c r="K65" s="32"/>
       <c r="L65" s="32"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="30" t="s">
         <v>85</v>
       </c>
@@ -5444,7 +5441,7 @@
       <c r="K66" s="32"/>
       <c r="L66" s="32"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="30" t="s">
         <v>88</v>
       </c>
@@ -5464,7 +5461,7 @@
       <c r="K67" s="32"/>
       <c r="L67" s="32"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="30" t="s">
         <v>91</v>
       </c>
@@ -5484,7 +5481,7 @@
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="30" t="s">
         <v>94</v>
       </c>
@@ -5504,7 +5501,7 @@
       <c r="K69" s="32"/>
       <c r="L69" s="32"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="30" t="s">
         <v>96</v>
       </c>
@@ -5524,7 +5521,7 @@
       <c r="K70" s="32"/>
       <c r="L70" s="32"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="30" t="s">
         <v>98</v>
       </c>
@@ -5544,7 +5541,7 @@
       <c r="K71" s="32"/>
       <c r="L71" s="32"/>
     </row>
-    <row r="72" spans="1:12" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" s="22" customFormat="1">
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="6"/>
@@ -5558,7 +5555,7 @@
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
     </row>
-    <row r="73" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="15" t="s">
         <v>213</v>
       </c>
@@ -5574,7 +5571,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="20" t="s">
         <v>214</v>
       </c>
@@ -5592,7 +5589,7 @@
       <c r="K74" s="32"/>
       <c r="L74" s="32"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="17" t="s">
         <v>197</v>
       </c>
@@ -5609,9 +5606,9 @@
       <c r="K75" s="32"/>
       <c r="L75" s="32"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>199</v>
@@ -5626,7 +5623,7 @@
       <c r="K76" s="32"/>
       <c r="L76" s="32"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="17" t="s">
         <v>200</v>
       </c>
@@ -5643,7 +5640,7 @@
       <c r="K77" s="32"/>
       <c r="L77" s="32"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="17" t="s">
         <v>202</v>
       </c>
@@ -5660,7 +5657,7 @@
       <c r="K78" s="32"/>
       <c r="L78" s="32"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="17" t="s">
         <v>203</v>
       </c>
@@ -5677,7 +5674,7 @@
       <c r="K79" s="32"/>
       <c r="L79" s="32"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="17" t="s">
         <v>205</v>
       </c>
@@ -5694,7 +5691,7 @@
       <c r="K80" s="32"/>
       <c r="L80" s="32"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="17" t="s">
         <v>207</v>
       </c>
@@ -5711,7 +5708,7 @@
       <c r="K81" s="32"/>
       <c r="L81" s="32"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="17" t="s">
         <v>209</v>
       </c>
@@ -5728,7 +5725,7 @@
       <c r="K82" s="32"/>
       <c r="L82" s="32"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="17" t="s">
         <v>211</v>
       </c>
@@ -5745,7 +5742,7 @@
       <c r="K83" s="32"/>
       <c r="L83" s="32"/>
     </row>
-    <row r="84" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="19" t="s">
         <v>218</v>
       </c>
@@ -5762,7 +5759,7 @@
       <c r="K84" s="32"/>
       <c r="L84" s="32"/>
     </row>
-    <row r="85" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="19" t="s">
         <v>219</v>
       </c>
@@ -5779,12 +5776,12 @@
       <c r="K85" s="32"/>
       <c r="L85" s="32"/>
     </row>
-    <row r="86" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="19" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D86" s="32"/>
       <c r="E86" s="32"/>
@@ -5796,7 +5793,7 @@
       <c r="K86" s="32"/>
       <c r="L86" s="32"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="32"/>
       <c r="B87" s="32"/>
       <c r="D87" s="32"/>
@@ -5809,7 +5806,7 @@
       <c r="K87" s="32"/>
       <c r="L87" s="32"/>
     </row>
-    <row r="88" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="15" t="s">
         <v>196</v>
       </c>
@@ -5824,7 +5821,7 @@
       <c r="K88" s="32"/>
       <c r="L88" s="32"/>
     </row>
-    <row r="89" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="9" t="s">
         <v>129</v>
       </c>
@@ -5841,7 +5838,7 @@
       <c r="K89" s="32"/>
       <c r="L89" s="32"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="30" t="s">
         <v>131</v>
       </c>
@@ -5858,7 +5855,7 @@
       <c r="K90" s="32"/>
       <c r="L90" s="32"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="30" t="s">
         <v>133</v>
       </c>
@@ -5875,7 +5872,7 @@
       <c r="K91" s="32"/>
       <c r="L91" s="32"/>
     </row>
-    <row r="92" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="25.5">
       <c r="A92" s="30" t="s">
         <v>135</v>
       </c>
@@ -5892,7 +5889,7 @@
       <c r="K92" s="32"/>
       <c r="L92" s="32"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="30" t="s">
         <v>137</v>
       </c>
@@ -5909,7 +5906,7 @@
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="30" t="s">
         <v>139</v>
       </c>
@@ -5926,7 +5923,7 @@
       <c r="K94" s="32"/>
       <c r="L94" s="32"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="30" t="s">
         <v>141</v>
       </c>
@@ -5943,7 +5940,7 @@
       <c r="K95" s="32"/>
       <c r="L95" s="32"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="30" t="s">
         <v>143</v>
       </c>
@@ -5960,7 +5957,7 @@
       <c r="K96" s="32"/>
       <c r="L96" s="32"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="30" t="s">
         <v>145</v>
       </c>
@@ -5977,7 +5974,7 @@
       <c r="K97" s="32"/>
       <c r="L97" s="32"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="30" t="s">
         <v>147</v>
       </c>
@@ -5994,7 +5991,7 @@
       <c r="K98" s="32"/>
       <c r="L98" s="32"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="30" t="s">
         <v>149</v>
       </c>
@@ -6011,7 +6008,7 @@
       <c r="K99" s="32"/>
       <c r="L99" s="32"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="30" t="s">
         <v>151</v>
       </c>
@@ -6028,7 +6025,7 @@
       <c r="K100" s="32"/>
       <c r="L100" s="32"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="30" t="s">
         <v>153</v>
       </c>
@@ -6045,7 +6042,7 @@
       <c r="K101" s="32"/>
       <c r="L101" s="32"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" s="30" t="s">
         <v>155</v>
       </c>
@@ -6062,7 +6059,7 @@
       <c r="K102" s="32"/>
       <c r="L102" s="32"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="A103" s="30" t="s">
         <v>157</v>
       </c>
@@ -6079,7 +6076,7 @@
       <c r="K103" s="32"/>
       <c r="L103" s="32"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" s="30" t="s">
         <v>159</v>
       </c>
@@ -6096,7 +6093,7 @@
       <c r="K104" s="32"/>
       <c r="L104" s="32"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105" s="30" t="s">
         <v>161</v>
       </c>
@@ -6113,7 +6110,7 @@
       <c r="K105" s="32"/>
       <c r="L105" s="32"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106" s="30" t="s">
         <v>163</v>
       </c>
@@ -6130,7 +6127,7 @@
       <c r="K106" s="32"/>
       <c r="L106" s="32"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="A107" s="30" t="s">
         <v>165</v>
       </c>
@@ -6147,7 +6144,7 @@
       <c r="K107" s="32"/>
       <c r="L107" s="32"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="30" t="s">
         <v>167</v>
       </c>
@@ -6164,7 +6161,7 @@
       <c r="K108" s="32"/>
       <c r="L108" s="32"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" s="30" t="s">
         <v>169</v>
       </c>
@@ -6181,7 +6178,7 @@
       <c r="K109" s="32"/>
       <c r="L109" s="32"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" s="30" t="s">
         <v>171</v>
       </c>
@@ -6198,7 +6195,7 @@
       <c r="K110" s="32"/>
       <c r="L110" s="32"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111" s="30" t="s">
         <v>173</v>
       </c>
@@ -6215,7 +6212,7 @@
       <c r="K111" s="32"/>
       <c r="L111" s="32"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" s="30" t="s">
         <v>175</v>
       </c>
@@ -6232,7 +6229,7 @@
       <c r="K112" s="32"/>
       <c r="L112" s="32"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="30" t="s">
         <v>177</v>
       </c>
@@ -6249,7 +6246,7 @@
       <c r="K113" s="32"/>
       <c r="L113" s="32"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="30" t="s">
         <v>141</v>
       </c>
@@ -6266,7 +6263,7 @@
       <c r="K114" s="32"/>
       <c r="L114" s="32"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="30" t="s">
         <v>145</v>
       </c>
@@ -6283,7 +6280,7 @@
       <c r="K115" s="32"/>
       <c r="L115" s="32"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" s="30" t="s">
         <v>143</v>
       </c>
@@ -6300,7 +6297,7 @@
       <c r="K116" s="32"/>
       <c r="L116" s="32"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" s="30" t="s">
         <v>182</v>
       </c>
@@ -6317,7 +6314,7 @@
       <c r="K117" s="32"/>
       <c r="L117" s="32"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="30" t="s">
         <v>184</v>
       </c>
@@ -6334,7 +6331,7 @@
       <c r="K118" s="32"/>
       <c r="L118" s="32"/>
     </row>
-    <row r="119" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="25.5">
       <c r="A119" s="30" t="s">
         <v>186</v>
       </c>
@@ -6351,7 +6348,7 @@
       <c r="K119" s="32"/>
       <c r="L119" s="32"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="30" t="s">
         <v>188</v>
       </c>
@@ -6368,7 +6365,7 @@
       <c r="K120" s="32"/>
       <c r="L120" s="32"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121" s="30" t="s">
         <v>190</v>
       </c>
@@ -6385,7 +6382,7 @@
       <c r="K121" s="32"/>
       <c r="L121" s="32"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" s="30" t="s">
         <v>192</v>
       </c>
@@ -6402,7 +6399,7 @@
       <c r="K122" s="32"/>
       <c r="L122" s="32"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="A123" s="30" t="s">
         <v>194</v>
       </c>
@@ -6419,7 +6416,7 @@
       <c r="K123" s="32"/>
       <c r="L123" s="32"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12">
       <c r="A124" s="32"/>
       <c r="B124" s="32"/>
       <c r="D124" s="32"/>
@@ -6432,7 +6429,7 @@
       <c r="K124" s="32"/>
       <c r="L124" s="32"/>
     </row>
-    <row r="125" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="A125" s="15" t="s">
         <v>229</v>
       </c>
@@ -6447,7 +6444,7 @@
       <c r="K125" s="32"/>
       <c r="L125" s="32"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" s="30" t="s">
         <v>230</v>
       </c>
@@ -6464,7 +6461,7 @@
       <c r="K126" s="32"/>
       <c r="L126" s="32"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127" s="30" t="s">
         <v>232</v>
       </c>
@@ -6481,7 +6478,7 @@
       <c r="K127" s="32"/>
       <c r="L127" s="32"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128" s="30" t="s">
         <v>233</v>
       </c>
@@ -6498,7 +6495,7 @@
       <c r="K128" s="32"/>
       <c r="L128" s="32"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12">
       <c r="A129" s="30" t="s">
         <v>234</v>
       </c>
@@ -6515,12 +6512,12 @@
       <c r="K129" s="32"/>
       <c r="L129" s="32"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12">
       <c r="A130" s="30" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D130" s="32"/>
       <c r="E130" s="32"/>
@@ -6532,7 +6529,7 @@
       <c r="K130" s="32"/>
       <c r="L130" s="32"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12">
       <c r="A131" s="32"/>
       <c r="B131" s="32"/>
       <c r="D131" s="32"/>
@@ -6545,9 +6542,9 @@
       <c r="K131" s="32"/>
       <c r="L131" s="32"/>
     </row>
-    <row r="132" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12">
       <c r="A132" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B132" s="32"/>
       <c r="D132" s="32"/>
@@ -6560,12 +6557,12 @@
       <c r="K132" s="32"/>
       <c r="L132" s="32"/>
     </row>
-    <row r="133" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12">
       <c r="A133" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B133" s="22" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C133" s="33"/>
       <c r="D133" s="32"/>
@@ -6578,12 +6575,12 @@
       <c r="K133" s="32"/>
       <c r="L133" s="32"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="A134" s="30" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C134" s="30"/>
       <c r="D134" s="32"/>
@@ -6596,12 +6593,12 @@
       <c r="K134" s="32"/>
       <c r="L134" s="32"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="A135" s="30" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C135" s="30"/>
       <c r="D135" s="32"/>
@@ -6614,12 +6611,12 @@
       <c r="K135" s="32"/>
       <c r="L135" s="32"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12">
       <c r="A136" s="30" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C136" s="30"/>
       <c r="D136" s="32"/>
@@ -6632,12 +6629,12 @@
       <c r="K136" s="32"/>
       <c r="L136" s="32"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12">
       <c r="A137" s="30" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C137" s="30"/>
       <c r="D137" s="32"/>
@@ -6650,12 +6647,12 @@
       <c r="K137" s="32"/>
       <c r="L137" s="32"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="A138" s="30" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C138" s="30"/>
       <c r="D138" s="32"/>
@@ -6668,12 +6665,12 @@
       <c r="K138" s="32"/>
       <c r="L138" s="32"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12">
       <c r="A139" s="30" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C139" s="30"/>
       <c r="D139" s="32"/>
@@ -6686,12 +6683,12 @@
       <c r="K139" s="32"/>
       <c r="L139" s="32"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" s="30" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C140" s="30"/>
       <c r="D140" s="32"/>
@@ -6704,12 +6701,12 @@
       <c r="K140" s="32"/>
       <c r="L140" s="32"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12">
       <c r="A141" s="30" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C141" s="30"/>
       <c r="D141" s="32"/>
@@ -6722,12 +6719,12 @@
       <c r="K141" s="32"/>
       <c r="L141" s="32"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12">
       <c r="A142" s="30" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C142" s="30"/>
       <c r="D142" s="32"/>
@@ -6740,12 +6737,12 @@
       <c r="K142" s="32"/>
       <c r="L142" s="32"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="A143" s="30" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C143" s="30"/>
       <c r="D143" s="32"/>
@@ -6758,12 +6755,12 @@
       <c r="K143" s="32"/>
       <c r="L143" s="32"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" s="30" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C144" s="30"/>
       <c r="D144" s="32"/>
@@ -6776,12 +6773,12 @@
       <c r="K144" s="32"/>
       <c r="L144" s="32"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12">
       <c r="A145" s="30" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C145" s="30"/>
       <c r="D145" s="32"/>
@@ -6794,12 +6791,12 @@
       <c r="K145" s="32"/>
       <c r="L145" s="32"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12">
       <c r="A146" s="30" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C146" s="30"/>
       <c r="D146" s="32"/>
@@ -6812,12 +6809,12 @@
       <c r="K146" s="32"/>
       <c r="L146" s="32"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12">
       <c r="A147" s="30" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C147" s="30"/>
       <c r="D147" s="32"/>
@@ -6830,12 +6827,12 @@
       <c r="K147" s="32"/>
       <c r="L147" s="32"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12">
       <c r="A148" s="30" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C148" s="30"/>
       <c r="D148" s="32"/>
@@ -6848,12 +6845,12 @@
       <c r="K148" s="32"/>
       <c r="L148" s="32"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12">
       <c r="A149" s="30" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C149" s="30"/>
       <c r="D149" s="32"/>
@@ -6866,12 +6863,12 @@
       <c r="K149" s="32"/>
       <c r="L149" s="32"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12">
       <c r="A150" s="30" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C150" s="30"/>
       <c r="D150" s="32"/>
@@ -6884,12 +6881,12 @@
       <c r="K150" s="32"/>
       <c r="L150" s="32"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12">
       <c r="A151" s="30" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C151" s="30"/>
       <c r="D151" s="32"/>
@@ -6902,7 +6899,7 @@
       <c r="K151" s="32"/>
       <c r="L151" s="32"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12">
       <c r="A152" s="32"/>
       <c r="B152" s="32"/>
       <c r="D152" s="32"/>
@@ -6915,12 +6912,12 @@
       <c r="K152" s="32"/>
       <c r="L152" s="32"/>
     </row>
-    <row r="153" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12">
       <c r="A153" s="14" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B153" s="32" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D153" s="32"/>
       <c r="E153" s="32"/>
@@ -6932,9 +6929,9 @@
       <c r="K153" s="32"/>
       <c r="L153" s="32"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12">
       <c r="A154" s="34" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B154" s="32"/>
       <c r="D154" s="32"/>
@@ -6947,9 +6944,9 @@
       <c r="K154" s="32"/>
       <c r="L154" s="32"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12">
       <c r="A155" s="34" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B155" s="32"/>
       <c r="D155" s="32"/>
@@ -6962,9 +6959,9 @@
       <c r="K155" s="32"/>
       <c r="L155" s="32"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12">
       <c r="A156" s="34" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B156" s="32"/>
       <c r="D156" s="32"/>
@@ -6977,7 +6974,7 @@
       <c r="K156" s="32"/>
       <c r="L156" s="32"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12">
       <c r="A157" s="34" t="s">
         <v>68</v>
       </c>
@@ -6992,9 +6989,9 @@
       <c r="K157" s="32"/>
       <c r="L157" s="32"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12">
       <c r="A158" s="34" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B158" s="32"/>
       <c r="D158" s="32"/>
@@ -7007,7 +7004,7 @@
       <c r="K158" s="32"/>
       <c r="L158" s="32"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="A159" s="34" t="s">
         <v>133</v>
       </c>
@@ -7022,7 +7019,7 @@
       <c r="K159" s="32"/>
       <c r="L159" s="32"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="A160" s="34" t="s">
         <v>135</v>
       </c>
@@ -7037,9 +7034,9 @@
       <c r="K160" s="32"/>
       <c r="L160" s="32"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12">
       <c r="A161" s="34" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B161" s="32"/>
       <c r="D161" s="32"/>
@@ -7052,9 +7049,9 @@
       <c r="K161" s="32"/>
       <c r="L161" s="32"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12">
       <c r="A162" s="34" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B162" s="32"/>
       <c r="D162" s="32"/>
@@ -7067,7 +7064,7 @@
       <c r="K162" s="32"/>
       <c r="L162" s="32"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="A163" s="32"/>
       <c r="B163" s="32"/>
       <c r="D163" s="32"/>
@@ -7080,12 +7077,12 @@
       <c r="K163" s="32"/>
       <c r="L163" s="32"/>
     </row>
-    <row r="164" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="A164" s="15" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B164" s="32" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D164" s="32"/>
       <c r="E164" s="32"/>
@@ -7097,9 +7094,9 @@
       <c r="K164" s="32"/>
       <c r="L164" s="32"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="A165" s="30" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B165" s="32"/>
       <c r="D165" s="32"/>
@@ -7112,9 +7109,9 @@
       <c r="K165" s="32"/>
       <c r="L165" s="32"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" s="32" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B166" s="32"/>
       <c r="D166" s="32"/>
@@ -7127,9 +7124,9 @@
       <c r="K166" s="32"/>
       <c r="L166" s="32"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12">
       <c r="A167" s="32" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B167" s="32"/>
       <c r="D167" s="32"/>
@@ -7142,9 +7139,9 @@
       <c r="K167" s="32"/>
       <c r="L167" s="32"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" s="32" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B168" s="32"/>
       <c r="D168" s="32"/>
@@ -7157,9 +7154,9 @@
       <c r="K168" s="32"/>
       <c r="L168" s="32"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169" s="32" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B169" s="32"/>
       <c r="D169" s="32"/>
@@ -7172,9 +7169,9 @@
       <c r="K169" s="32"/>
       <c r="L169" s="32"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" s="32" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B170" s="32"/>
       <c r="D170" s="32"/>
@@ -7187,9 +7184,9 @@
       <c r="K170" s="32"/>
       <c r="L170" s="32"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="A171" s="32" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B171" s="32"/>
       <c r="D171" s="32"/>
@@ -7202,9 +7199,9 @@
       <c r="K171" s="32"/>
       <c r="L171" s="32"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="A172" s="32" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B172" s="32"/>
       <c r="D172" s="32"/>
@@ -7217,9 +7214,9 @@
       <c r="K172" s="32"/>
       <c r="L172" s="32"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="A173" s="32" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B173" s="32"/>
       <c r="D173" s="32"/>
@@ -7232,9 +7229,9 @@
       <c r="K173" s="32"/>
       <c r="L173" s="32"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12">
       <c r="A174" s="32" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B174" s="32"/>
       <c r="D174" s="32"/>
@@ -7247,9 +7244,9 @@
       <c r="K174" s="32"/>
       <c r="L174" s="32"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12">
       <c r="A175" s="32" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B175" s="32"/>
       <c r="D175" s="32"/>
@@ -7262,9 +7259,9 @@
       <c r="K175" s="32"/>
       <c r="L175" s="32"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12">
       <c r="A176" s="32" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B176" s="32"/>
       <c r="D176" s="32"/>
@@ -7277,9 +7274,9 @@
       <c r="K176" s="32"/>
       <c r="L176" s="32"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12">
       <c r="A177" s="32" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B177" s="32"/>
       <c r="D177" s="32"/>
@@ -7292,9 +7289,9 @@
       <c r="K177" s="32"/>
       <c r="L177" s="32"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12">
       <c r="A178" s="32" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B178" s="32"/>
       <c r="D178" s="32"/>
@@ -7307,9 +7304,9 @@
       <c r="K178" s="32"/>
       <c r="L178" s="32"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12">
       <c r="A179" s="32" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B179" s="32"/>
       <c r="D179" s="32"/>
@@ -7322,9 +7319,9 @@
       <c r="K179" s="32"/>
       <c r="L179" s="32"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12">
       <c r="A180" s="32" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B180" s="32"/>
       <c r="D180" s="32"/>
@@ -7337,9 +7334,9 @@
       <c r="K180" s="32"/>
       <c r="L180" s="32"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12">
       <c r="A181" s="32" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B181" s="32"/>
       <c r="D181" s="32"/>
@@ -7352,9 +7349,9 @@
       <c r="K181" s="32"/>
       <c r="L181" s="32"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12">
       <c r="A182" s="32" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B182" s="32"/>
       <c r="D182" s="32"/>
@@ -7367,9 +7364,9 @@
       <c r="K182" s="32"/>
       <c r="L182" s="32"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12">
       <c r="A183" s="32" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B183" s="32"/>
       <c r="D183" s="32"/>
@@ -7382,9 +7379,9 @@
       <c r="K183" s="32"/>
       <c r="L183" s="32"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12">
       <c r="A184" s="32" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B184" s="32"/>
       <c r="D184" s="32"/>
@@ -7397,9 +7394,9 @@
       <c r="K184" s="32"/>
       <c r="L184" s="32"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12">
       <c r="A185" s="32" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B185" s="32"/>
       <c r="D185" s="32"/>
@@ -7412,9 +7409,9 @@
       <c r="K185" s="32"/>
       <c r="L185" s="32"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12">
       <c r="A186" s="32" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B186" s="32"/>
       <c r="D186" s="32"/>
@@ -7427,9 +7424,9 @@
       <c r="K186" s="32"/>
       <c r="L186" s="32"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12">
       <c r="A187" s="32" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B187" s="32"/>
       <c r="D187" s="32"/>
@@ -7442,9 +7439,9 @@
       <c r="K187" s="32"/>
       <c r="L187" s="32"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12">
       <c r="A188" s="32" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B188" s="32"/>
       <c r="D188" s="32"/>
@@ -7457,9 +7454,9 @@
       <c r="K188" s="32"/>
       <c r="L188" s="32"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12">
       <c r="A189" s="32" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B189" s="32"/>
       <c r="D189" s="32"/>
@@ -7472,9 +7469,9 @@
       <c r="K189" s="32"/>
       <c r="L189" s="32"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12">
       <c r="A190" s="32" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B190" s="32"/>
       <c r="D190" s="32"/>
@@ -7487,9 +7484,9 @@
       <c r="K190" s="32"/>
       <c r="L190" s="32"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12">
       <c r="A191" s="32" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B191" s="32"/>
       <c r="D191" s="32"/>
@@ -7502,9 +7499,9 @@
       <c r="K191" s="32"/>
       <c r="L191" s="32"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12">
       <c r="A192" s="32" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B192" s="32"/>
       <c r="D192" s="32"/>
@@ -7517,9 +7514,9 @@
       <c r="K192" s="32"/>
       <c r="L192" s="32"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12">
       <c r="A193" s="32" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B193" s="32"/>
       <c r="D193" s="32"/>
@@ -7532,9 +7529,9 @@
       <c r="K193" s="32"/>
       <c r="L193" s="32"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12">
       <c r="A194" s="32" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B194" s="32"/>
       <c r="D194" s="32"/>
@@ -7547,9 +7544,9 @@
       <c r="K194" s="32"/>
       <c r="L194" s="32"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12">
       <c r="A195" s="32" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B195" s="32"/>
       <c r="D195" s="32"/>
@@ -7562,9 +7559,9 @@
       <c r="K195" s="32"/>
       <c r="L195" s="32"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12">
       <c r="A196" s="32" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B196" s="32"/>
       <c r="D196" s="32"/>
@@ -7577,9 +7574,9 @@
       <c r="K196" s="32"/>
       <c r="L196" s="32"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12">
       <c r="A197" s="32" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B197" s="32"/>
       <c r="D197" s="32"/>
@@ -7592,9 +7589,9 @@
       <c r="K197" s="32"/>
       <c r="L197" s="32"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12">
       <c r="A198" s="32" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B198" s="32"/>
       <c r="D198" s="32"/>
@@ -7607,9 +7604,9 @@
       <c r="K198" s="32"/>
       <c r="L198" s="32"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12">
       <c r="A199" s="32" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B199" s="32"/>
       <c r="D199" s="32"/>
@@ -7622,9 +7619,9 @@
       <c r="K199" s="32"/>
       <c r="L199" s="32"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12">
       <c r="A200" s="32" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B200" s="32"/>
       <c r="D200" s="32"/>
@@ -7637,9 +7634,9 @@
       <c r="K200" s="32"/>
       <c r="L200" s="32"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12">
       <c r="A201" s="32" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B201" s="32"/>
       <c r="D201" s="32"/>
@@ -7652,9 +7649,9 @@
       <c r="K201" s="32"/>
       <c r="L201" s="32"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12">
       <c r="A202" s="32" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B202" s="32"/>
       <c r="D202" s="32"/>
@@ -7667,9 +7664,9 @@
       <c r="K202" s="32"/>
       <c r="L202" s="32"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12">
       <c r="A203" s="32" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B203" s="32"/>
       <c r="D203" s="32"/>
@@ -7682,9 +7679,9 @@
       <c r="K203" s="32"/>
       <c r="L203" s="32"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12">
       <c r="A204" s="32" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B204" s="32"/>
       <c r="D204" s="32"/>
@@ -7697,9 +7694,9 @@
       <c r="K204" s="32"/>
       <c r="L204" s="32"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12">
       <c r="A205" s="32" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B205" s="32"/>
       <c r="D205" s="32"/>
@@ -7712,9 +7709,9 @@
       <c r="K205" s="32"/>
       <c r="L205" s="32"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12">
       <c r="A206" s="32" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B206" s="32"/>
       <c r="D206" s="32"/>
@@ -7727,9 +7724,9 @@
       <c r="K206" s="32"/>
       <c r="L206" s="32"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12">
       <c r="A207" s="32" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B207" s="32"/>
       <c r="D207" s="32"/>
@@ -7742,9 +7739,9 @@
       <c r="K207" s="32"/>
       <c r="L207" s="32"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12">
       <c r="A208" s="32" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B208" s="32"/>
       <c r="D208" s="32"/>
@@ -7757,9 +7754,9 @@
       <c r="K208" s="32"/>
       <c r="L208" s="32"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12">
       <c r="A209" s="32" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B209" s="32"/>
       <c r="D209" s="32"/>
@@ -7772,9 +7769,9 @@
       <c r="K209" s="32"/>
       <c r="L209" s="32"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12">
       <c r="A210" s="32" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B210" s="32"/>
       <c r="D210" s="32"/>
@@ -7787,9 +7784,9 @@
       <c r="K210" s="32"/>
       <c r="L210" s="32"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12">
       <c r="A211" s="32" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B211" s="32"/>
       <c r="D211" s="32"/>
@@ -7802,9 +7799,9 @@
       <c r="K211" s="32"/>
       <c r="L211" s="32"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12">
       <c r="A212" s="32" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B212" s="32"/>
       <c r="D212" s="32"/>
@@ -7817,9 +7814,9 @@
       <c r="K212" s="32"/>
       <c r="L212" s="32"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12">
       <c r="A213" s="32" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B213" s="32"/>
       <c r="D213" s="32"/>
@@ -7832,9 +7829,9 @@
       <c r="K213" s="32"/>
       <c r="L213" s="32"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12">
       <c r="A214" s="32" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B214" s="32"/>
       <c r="D214" s="32"/>
@@ -7847,9 +7844,9 @@
       <c r="K214" s="32"/>
       <c r="L214" s="32"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12">
       <c r="A215" s="32" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B215" s="32"/>
       <c r="D215" s="32"/>
@@ -7862,9 +7859,9 @@
       <c r="K215" s="32"/>
       <c r="L215" s="32"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12">
       <c r="A216" s="32" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B216" s="32"/>
       <c r="D216" s="32"/>
@@ -7877,9 +7874,9 @@
       <c r="K216" s="32"/>
       <c r="L216" s="32"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12">
       <c r="A217" s="32" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B217" s="32"/>
       <c r="D217" s="32"/>
@@ -7892,9 +7889,9 @@
       <c r="K217" s="32"/>
       <c r="L217" s="32"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12">
       <c r="A218" s="32" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B218" s="32"/>
       <c r="D218" s="32"/>
@@ -7907,9 +7904,9 @@
       <c r="K218" s="32"/>
       <c r="L218" s="32"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12">
       <c r="A219" s="32" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B219" s="32"/>
       <c r="D219" s="32"/>
@@ -7922,9 +7919,9 @@
       <c r="K219" s="32"/>
       <c r="L219" s="32"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12">
       <c r="A220" s="32" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B220" s="32"/>
       <c r="D220" s="32"/>
@@ -7937,9 +7934,9 @@
       <c r="K220" s="32"/>
       <c r="L220" s="32"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12">
       <c r="A221" s="32" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B221" s="32"/>
       <c r="D221" s="32"/>
@@ -7952,9 +7949,9 @@
       <c r="K221" s="32"/>
       <c r="L221" s="32"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12">
       <c r="A222" s="32" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B222" s="32"/>
       <c r="D222" s="32"/>
@@ -7967,9 +7964,9 @@
       <c r="K222" s="32"/>
       <c r="L222" s="32"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12">
       <c r="A223" s="32" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B223" s="32"/>
       <c r="D223" s="32"/>
@@ -7982,9 +7979,9 @@
       <c r="K223" s="32"/>
       <c r="L223" s="32"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12">
       <c r="A224" s="32" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B224" s="32"/>
       <c r="D224" s="32"/>
@@ -7997,9 +7994,9 @@
       <c r="K224" s="32"/>
       <c r="L224" s="32"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12">
       <c r="A225" s="32" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B225" s="32"/>
       <c r="D225" s="32"/>
@@ -8012,9 +8009,9 @@
       <c r="K225" s="32"/>
       <c r="L225" s="32"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12">
       <c r="A226" s="32" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B226" s="32"/>
       <c r="D226" s="32"/>
@@ -8027,9 +8024,9 @@
       <c r="K226" s="32"/>
       <c r="L226" s="32"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12">
       <c r="A227" s="32" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B227" s="32"/>
       <c r="D227" s="32"/>
@@ -8042,9 +8039,9 @@
       <c r="K227" s="32"/>
       <c r="L227" s="32"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12">
       <c r="A228" s="32" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B228" s="32"/>
       <c r="D228" s="32"/>
@@ -8057,9 +8054,9 @@
       <c r="K228" s="32"/>
       <c r="L228" s="32"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12">
       <c r="A229" s="32" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B229" s="32"/>
       <c r="D229" s="32"/>
@@ -8072,9 +8069,9 @@
       <c r="K229" s="32"/>
       <c r="L229" s="32"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12">
       <c r="A230" s="32" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B230" s="32"/>
       <c r="D230" s="32"/>
@@ -8087,9 +8084,9 @@
       <c r="K230" s="32"/>
       <c r="L230" s="32"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12">
       <c r="A231" s="32" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B231" s="32"/>
       <c r="D231" s="32"/>
@@ -8102,9 +8099,9 @@
       <c r="K231" s="32"/>
       <c r="L231" s="32"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12">
       <c r="A232" s="32" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B232" s="32"/>
       <c r="D232" s="32"/>
@@ -8117,9 +8114,9 @@
       <c r="K232" s="32"/>
       <c r="L232" s="32"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12">
       <c r="A233" s="32" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B233" s="32"/>
       <c r="D233" s="32"/>
@@ -8132,9 +8129,9 @@
       <c r="K233" s="32"/>
       <c r="L233" s="32"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12">
       <c r="A234" s="32" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B234" s="32"/>
       <c r="D234" s="32"/>
@@ -8147,9 +8144,9 @@
       <c r="K234" s="32"/>
       <c r="L234" s="32"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12">
       <c r="A235" s="32" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B235" s="32"/>
       <c r="D235" s="32"/>
@@ -8162,9 +8159,9 @@
       <c r="K235" s="32"/>
       <c r="L235" s="32"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12">
       <c r="A236" s="32" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B236" s="32"/>
       <c r="D236" s="32"/>
@@ -8177,9 +8174,9 @@
       <c r="K236" s="32"/>
       <c r="L236" s="32"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12">
       <c r="A237" s="32" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B237" s="32"/>
       <c r="D237" s="32"/>
@@ -8192,9 +8189,9 @@
       <c r="K237" s="32"/>
       <c r="L237" s="32"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12">
       <c r="A238" s="32" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B238" s="32"/>
       <c r="D238" s="32"/>
@@ -8207,9 +8204,9 @@
       <c r="K238" s="32"/>
       <c r="L238" s="32"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12">
       <c r="A239" s="32" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B239" s="32"/>
       <c r="D239" s="32"/>
@@ -8222,9 +8219,9 @@
       <c r="K239" s="32"/>
       <c r="L239" s="32"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12">
       <c r="A240" s="32" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B240" s="32"/>
       <c r="D240" s="32"/>
@@ -8237,9 +8234,9 @@
       <c r="K240" s="32"/>
       <c r="L240" s="32"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12">
       <c r="A241" s="32" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B241" s="32"/>
       <c r="D241" s="32"/>
@@ -8252,9 +8249,9 @@
       <c r="K241" s="32"/>
       <c r="L241" s="32"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12">
       <c r="A242" s="32" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B242" s="32"/>
       <c r="D242" s="32"/>
@@ -8267,9 +8264,9 @@
       <c r="K242" s="32"/>
       <c r="L242" s="32"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12">
       <c r="A243" s="32" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B243" s="32"/>
       <c r="D243" s="32"/>
@@ -8282,9 +8279,9 @@
       <c r="K243" s="32"/>
       <c r="L243" s="32"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12">
       <c r="A244" s="32" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B244" s="32"/>
       <c r="D244" s="32"/>
@@ -8297,9 +8294,9 @@
       <c r="K244" s="32"/>
       <c r="L244" s="32"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12">
       <c r="A245" s="32" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B245" s="32"/>
       <c r="D245" s="32"/>
@@ -8312,9 +8309,9 @@
       <c r="K245" s="32"/>
       <c r="L245" s="32"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12">
       <c r="A246" s="32" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B246" s="32"/>
       <c r="D246" s="32"/>
@@ -8327,9 +8324,9 @@
       <c r="K246" s="32"/>
       <c r="L246" s="32"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12">
       <c r="A247" s="32" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B247" s="32"/>
       <c r="D247" s="32"/>
@@ -8342,9 +8339,9 @@
       <c r="K247" s="32"/>
       <c r="L247" s="32"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12">
       <c r="A248" s="32" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B248" s="32"/>
       <c r="D248" s="32"/>
@@ -8357,9 +8354,9 @@
       <c r="K248" s="32"/>
       <c r="L248" s="32"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12">
       <c r="A249" s="32" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B249" s="32"/>
       <c r="D249" s="32"/>
@@ -8372,9 +8369,9 @@
       <c r="K249" s="32"/>
       <c r="L249" s="32"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12">
       <c r="A250" s="32" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B250" s="32"/>
       <c r="D250" s="32"/>
@@ -8387,9 +8384,9 @@
       <c r="K250" s="32"/>
       <c r="L250" s="32"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12">
       <c r="A251" s="32" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B251" s="32"/>
       <c r="D251" s="32"/>
@@ -8402,9 +8399,9 @@
       <c r="K251" s="32"/>
       <c r="L251" s="32"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12">
       <c r="A252" s="32" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B252" s="32"/>
       <c r="D252" s="32"/>
@@ -8417,9 +8414,9 @@
       <c r="K252" s="32"/>
       <c r="L252" s="32"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12">
       <c r="A253" s="32" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B253" s="32"/>
       <c r="D253" s="32"/>
@@ -8432,9 +8429,9 @@
       <c r="K253" s="32"/>
       <c r="L253" s="32"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12">
       <c r="A254" s="32" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B254" s="32"/>
       <c r="D254" s="32"/>
@@ -8447,9 +8444,9 @@
       <c r="K254" s="32"/>
       <c r="L254" s="32"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12">
       <c r="A255" s="32" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B255" s="32"/>
       <c r="D255" s="32"/>
@@ -8462,9 +8459,9 @@
       <c r="K255" s="32"/>
       <c r="L255" s="32"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12">
       <c r="A256" s="32" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B256" s="32"/>
       <c r="D256" s="32"/>
@@ -8477,9 +8474,9 @@
       <c r="K256" s="32"/>
       <c r="L256" s="32"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12">
       <c r="A257" s="32" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B257" s="32"/>
       <c r="D257" s="32"/>
@@ -8492,9 +8489,9 @@
       <c r="K257" s="32"/>
       <c r="L257" s="32"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12">
       <c r="A258" s="32" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B258" s="32"/>
       <c r="D258" s="32"/>
@@ -8507,9 +8504,9 @@
       <c r="K258" s="32"/>
       <c r="L258" s="32"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12">
       <c r="A259" s="32" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B259" s="32"/>
       <c r="D259" s="32"/>
@@ -8522,9 +8519,9 @@
       <c r="K259" s="32"/>
       <c r="L259" s="32"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12">
       <c r="A260" s="32" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B260" s="32"/>
       <c r="D260" s="32"/>
@@ -8537,9 +8534,9 @@
       <c r="K260" s="32"/>
       <c r="L260" s="32"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12">
       <c r="A261" s="32" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B261" s="32"/>
       <c r="D261" s="32"/>
@@ -8552,9 +8549,9 @@
       <c r="K261" s="32"/>
       <c r="L261" s="32"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12">
       <c r="A262" s="32" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B262" s="32"/>
       <c r="D262" s="32"/>
@@ -8567,9 +8564,9 @@
       <c r="K262" s="32"/>
       <c r="L262" s="32"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12">
       <c r="A263" s="32" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B263" s="32"/>
       <c r="D263" s="32"/>
@@ -8582,9 +8579,9 @@
       <c r="K263" s="32"/>
       <c r="L263" s="32"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12">
       <c r="A264" s="32" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B264" s="32"/>
       <c r="D264" s="32"/>
@@ -8597,9 +8594,9 @@
       <c r="K264" s="32"/>
       <c r="L264" s="32"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12">
       <c r="A265" s="32" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B265" s="32"/>
       <c r="D265" s="32"/>
@@ -8612,9 +8609,9 @@
       <c r="K265" s="32"/>
       <c r="L265" s="32"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12">
       <c r="A266" s="32" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B266" s="32"/>
       <c r="D266" s="32"/>
@@ -8627,9 +8624,9 @@
       <c r="K266" s="32"/>
       <c r="L266" s="32"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12">
       <c r="A267" s="32" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B267" s="32"/>
       <c r="D267" s="32"/>
@@ -8642,9 +8639,9 @@
       <c r="K267" s="32"/>
       <c r="L267" s="32"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12">
       <c r="A268" s="32" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B268" s="32"/>
       <c r="D268" s="32"/>
@@ -8657,9 +8654,9 @@
       <c r="K268" s="32"/>
       <c r="L268" s="32"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12">
       <c r="A269" s="32" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B269" s="32"/>
       <c r="D269" s="32"/>
@@ -8672,9 +8669,9 @@
       <c r="K269" s="32"/>
       <c r="L269" s="32"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12">
       <c r="A270" s="32" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B270" s="32"/>
       <c r="D270" s="32"/>
@@ -8687,9 +8684,9 @@
       <c r="K270" s="32"/>
       <c r="L270" s="32"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12">
       <c r="A271" s="32" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B271" s="32"/>
       <c r="D271" s="32"/>
@@ -8702,9 +8699,9 @@
       <c r="K271" s="32"/>
       <c r="L271" s="32"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12">
       <c r="A272" s="32" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B272" s="32"/>
       <c r="D272" s="32"/>
@@ -8717,9 +8714,9 @@
       <c r="K272" s="32"/>
       <c r="L272" s="32"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12">
       <c r="A273" s="32" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B273" s="32"/>
       <c r="D273" s="32"/>
@@ -8732,9 +8729,9 @@
       <c r="K273" s="32"/>
       <c r="L273" s="32"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12">
       <c r="A274" s="32" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B274" s="32"/>
       <c r="D274" s="32"/>
@@ -8747,9 +8744,9 @@
       <c r="K274" s="32"/>
       <c r="L274" s="32"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12">
       <c r="A275" s="32" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B275" s="32"/>
       <c r="D275" s="32"/>
@@ -8762,9 +8759,9 @@
       <c r="K275" s="32"/>
       <c r="L275" s="32"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12">
       <c r="A276" s="32" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B276" s="32"/>
       <c r="D276" s="32"/>
@@ -8777,9 +8774,9 @@
       <c r="K276" s="32"/>
       <c r="L276" s="32"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12">
       <c r="A277" s="32" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B277" s="32"/>
       <c r="D277" s="32"/>
@@ -8792,9 +8789,9 @@
       <c r="K277" s="32"/>
       <c r="L277" s="32"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12">
       <c r="A278" s="32" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B278" s="32"/>
       <c r="D278" s="32"/>
@@ -8807,9 +8804,9 @@
       <c r="K278" s="32"/>
       <c r="L278" s="32"/>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12">
       <c r="A279" s="32" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B279" s="32"/>
       <c r="D279" s="32"/>
@@ -8822,9 +8819,9 @@
       <c r="K279" s="32"/>
       <c r="L279" s="32"/>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12">
       <c r="A280" s="32" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B280" s="32"/>
       <c r="D280" s="32"/>
@@ -8837,9 +8834,9 @@
       <c r="K280" s="32"/>
       <c r="L280" s="32"/>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12">
       <c r="A281" s="32" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B281" s="32"/>
       <c r="D281" s="32"/>
@@ -8852,9 +8849,9 @@
       <c r="K281" s="32"/>
       <c r="L281" s="32"/>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12">
       <c r="A282" s="32" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B282" s="32"/>
       <c r="D282" s="32"/>
@@ -8867,9 +8864,9 @@
       <c r="K282" s="32"/>
       <c r="L282" s="32"/>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12">
       <c r="A283" s="32" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B283" s="32"/>
       <c r="D283" s="32"/>
@@ -8882,9 +8879,9 @@
       <c r="K283" s="32"/>
       <c r="L283" s="32"/>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12">
       <c r="A284" s="32" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B284" s="32"/>
       <c r="D284" s="32"/>
@@ -8897,9 +8894,9 @@
       <c r="K284" s="32"/>
       <c r="L284" s="32"/>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12">
       <c r="A285" s="32" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B285" s="32"/>
       <c r="D285" s="32"/>
@@ -8912,9 +8909,9 @@
       <c r="K285" s="32"/>
       <c r="L285" s="32"/>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12">
       <c r="A286" s="32" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B286" s="32"/>
       <c r="D286" s="32"/>
@@ -8927,9 +8924,9 @@
       <c r="K286" s="32"/>
       <c r="L286" s="32"/>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12">
       <c r="A287" s="32" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B287" s="32"/>
       <c r="D287" s="32"/>
@@ -8942,9 +8939,9 @@
       <c r="K287" s="32"/>
       <c r="L287" s="32"/>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12">
       <c r="A288" s="32" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B288" s="32"/>
       <c r="D288" s="32"/>
@@ -8957,9 +8954,9 @@
       <c r="K288" s="32"/>
       <c r="L288" s="32"/>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12">
       <c r="A289" s="32" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B289" s="32"/>
       <c r="D289" s="32"/>
@@ -8972,9 +8969,9 @@
       <c r="K289" s="32"/>
       <c r="L289" s="32"/>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12">
       <c r="A290" s="5" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B290" s="32"/>
       <c r="D290" s="32"/>
@@ -8987,9 +8984,9 @@
       <c r="K290" s="32"/>
       <c r="L290" s="32"/>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12">
       <c r="A291" s="5" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B291" s="32"/>
       <c r="D291" s="32"/>
@@ -9002,9 +8999,9 @@
       <c r="K291" s="32"/>
       <c r="L291" s="32"/>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12">
       <c r="A292" s="5" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B292" s="32"/>
       <c r="D292" s="32"/>
@@ -9017,9 +9014,9 @@
       <c r="K292" s="32"/>
       <c r="L292" s="32"/>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12">
       <c r="A293" s="5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B293" s="32"/>
       <c r="D293" s="32"/>
@@ -9032,9 +9029,9 @@
       <c r="K293" s="32"/>
       <c r="L293" s="32"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12">
       <c r="A294" s="5" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B294" s="32"/>
       <c r="D294" s="32"/>
@@ -9047,9 +9044,9 @@
       <c r="K294" s="32"/>
       <c r="L294" s="32"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12">
       <c r="A295" s="5" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B295" s="32"/>
       <c r="D295" s="32"/>
@@ -9062,9 +9059,9 @@
       <c r="K295" s="32"/>
       <c r="L295" s="32"/>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12">
       <c r="A296" s="5" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B296" s="32"/>
       <c r="D296" s="32"/>
@@ -9077,9 +9074,9 @@
       <c r="K296" s="32"/>
       <c r="L296" s="32"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12">
       <c r="A297" s="5" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B297" s="32"/>
       <c r="D297" s="32"/>
@@ -9092,9 +9089,9 @@
       <c r="K297" s="32"/>
       <c r="L297" s="32"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12">
       <c r="A298" s="5" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B298" s="32"/>
       <c r="D298" s="32"/>
@@ -9107,9 +9104,9 @@
       <c r="K298" s="32"/>
       <c r="L298" s="32"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12">
       <c r="A299" s="5" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B299" s="32"/>
       <c r="D299" s="32"/>
@@ -9122,9 +9119,9 @@
       <c r="K299" s="32"/>
       <c r="L299" s="32"/>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12">
       <c r="A300" s="5" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B300" s="32"/>
       <c r="D300" s="32"/>
@@ -9137,9 +9134,9 @@
       <c r="K300" s="32"/>
       <c r="L300" s="32"/>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12">
       <c r="A301" s="5" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B301" s="32"/>
       <c r="D301" s="32"/>
@@ -9152,9 +9149,9 @@
       <c r="K301" s="32"/>
       <c r="L301" s="32"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12">
       <c r="A302" s="5" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B302" s="32"/>
       <c r="D302" s="32"/>
@@ -9167,9 +9164,9 @@
       <c r="K302" s="32"/>
       <c r="L302" s="32"/>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12">
       <c r="A303" s="5" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B303" s="32"/>
       <c r="D303" s="32"/>
@@ -9182,9 +9179,9 @@
       <c r="K303" s="32"/>
       <c r="L303" s="32"/>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12">
       <c r="A304" s="5" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B304" s="32"/>
       <c r="D304" s="32"/>
@@ -9197,9 +9194,9 @@
       <c r="K304" s="32"/>
       <c r="L304" s="32"/>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12">
       <c r="A305" s="5" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B305" s="32"/>
       <c r="D305" s="32"/>
@@ -9212,9 +9209,9 @@
       <c r="K305" s="32"/>
       <c r="L305" s="32"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12">
       <c r="A306" s="5" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B306" s="32"/>
       <c r="D306" s="32"/>
@@ -9227,9 +9224,9 @@
       <c r="K306" s="32"/>
       <c r="L306" s="32"/>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12">
       <c r="A307" s="5" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B307" s="32"/>
       <c r="D307" s="32"/>
@@ -9242,9 +9239,9 @@
       <c r="K307" s="32"/>
       <c r="L307" s="32"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12">
       <c r="A308" s="5" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B308" s="32"/>
       <c r="D308" s="32"/>
@@ -9257,9 +9254,9 @@
       <c r="K308" s="32"/>
       <c r="L308" s="32"/>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12">
       <c r="A309" s="5" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B309" s="32"/>
       <c r="D309" s="32"/>
@@ -9272,9 +9269,9 @@
       <c r="K309" s="32"/>
       <c r="L309" s="32"/>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12">
       <c r="A310" s="5" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B310" s="32"/>
       <c r="D310" s="32"/>
@@ -9287,9 +9284,9 @@
       <c r="K310" s="32"/>
       <c r="L310" s="32"/>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12">
       <c r="A311" s="5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B311" s="32"/>
       <c r="D311" s="32"/>
@@ -9302,9 +9299,9 @@
       <c r="K311" s="32"/>
       <c r="L311" s="32"/>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12">
       <c r="A312" s="5" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B312" s="32"/>
       <c r="D312" s="32"/>
@@ -9317,9 +9314,9 @@
       <c r="K312" s="32"/>
       <c r="L312" s="32"/>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12">
       <c r="A313" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B313" s="32"/>
       <c r="D313" s="32"/>
@@ -9332,9 +9329,9 @@
       <c r="K313" s="32"/>
       <c r="L313" s="32"/>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12">
       <c r="A314" s="5" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B314" s="32"/>
       <c r="D314" s="32"/>
@@ -9347,9 +9344,9 @@
       <c r="K314" s="32"/>
       <c r="L314" s="32"/>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12">
       <c r="A315" s="5" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B315" s="32"/>
       <c r="D315" s="32"/>
@@ -9362,9 +9359,9 @@
       <c r="K315" s="32"/>
       <c r="L315" s="32"/>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12">
       <c r="A316" s="5" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B316" s="32"/>
       <c r="D316" s="32"/>
@@ -9377,9 +9374,9 @@
       <c r="K316" s="32"/>
       <c r="L316" s="32"/>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12">
       <c r="A317" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B317" s="32"/>
       <c r="D317" s="32"/>
@@ -9392,9 +9389,9 @@
       <c r="K317" s="32"/>
       <c r="L317" s="32"/>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12">
       <c r="A318" s="5" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B318" s="32"/>
       <c r="D318" s="32"/>
@@ -9407,9 +9404,9 @@
       <c r="K318" s="32"/>
       <c r="L318" s="32"/>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12">
       <c r="A319" s="5" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B319" s="32"/>
       <c r="D319" s="32"/>
@@ -9422,9 +9419,9 @@
       <c r="K319" s="32"/>
       <c r="L319" s="32"/>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12">
       <c r="A320" s="5" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B320" s="32"/>
       <c r="D320" s="32"/>
@@ -9437,9 +9434,9 @@
       <c r="K320" s="32"/>
       <c r="L320" s="32"/>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12">
       <c r="A321" s="5" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B321" s="32"/>
       <c r="D321" s="32"/>
@@ -9452,9 +9449,9 @@
       <c r="K321" s="32"/>
       <c r="L321" s="32"/>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12">
       <c r="A322" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B322" s="32"/>
       <c r="D322" s="32"/>
@@ -9467,9 +9464,9 @@
       <c r="K322" s="32"/>
       <c r="L322" s="32"/>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12">
       <c r="A323" s="5" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B323" s="32"/>
       <c r="D323" s="32"/>
@@ -9482,9 +9479,9 @@
       <c r="K323" s="32"/>
       <c r="L323" s="32"/>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12">
       <c r="A324" s="5" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B324" s="32"/>
       <c r="D324" s="32"/>
@@ -9497,9 +9494,9 @@
       <c r="K324" s="32"/>
       <c r="L324" s="32"/>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12">
       <c r="A325" s="5" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B325" s="32"/>
       <c r="D325" s="32"/>
@@ -9512,9 +9509,9 @@
       <c r="K325" s="32"/>
       <c r="L325" s="32"/>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12">
       <c r="A326" s="5" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B326" s="32"/>
       <c r="D326" s="32"/>
@@ -9527,9 +9524,9 @@
       <c r="K326" s="32"/>
       <c r="L326" s="32"/>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12">
       <c r="A327" s="5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B327" s="32"/>
       <c r="D327" s="32"/>
@@ -9542,9 +9539,9 @@
       <c r="K327" s="32"/>
       <c r="L327" s="32"/>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12">
       <c r="A328" s="5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B328" s="32"/>
       <c r="D328" s="32"/>
@@ -9557,9 +9554,9 @@
       <c r="K328" s="32"/>
       <c r="L328" s="32"/>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12">
       <c r="A329" s="5" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B329" s="32"/>
       <c r="D329" s="32"/>
@@ -9572,9 +9569,9 @@
       <c r="K329" s="32"/>
       <c r="L329" s="32"/>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12">
       <c r="A330" s="5" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B330" s="32"/>
       <c r="D330" s="32"/>
@@ -9587,9 +9584,9 @@
       <c r="K330" s="32"/>
       <c r="L330" s="32"/>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12">
       <c r="A331" s="5" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B331" s="32"/>
       <c r="D331" s="32"/>
@@ -9602,9 +9599,9 @@
       <c r="K331" s="32"/>
       <c r="L331" s="32"/>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12">
       <c r="A332" s="5" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B332" s="32"/>
       <c r="D332" s="32"/>
@@ -9617,9 +9614,9 @@
       <c r="K332" s="32"/>
       <c r="L332" s="32"/>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12">
       <c r="A333" s="5" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B333" s="32"/>
       <c r="D333" s="32"/>
@@ -9632,9 +9629,9 @@
       <c r="K333" s="32"/>
       <c r="L333" s="32"/>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12">
       <c r="A334" s="5" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B334" s="32"/>
       <c r="D334" s="32"/>
@@ -9647,9 +9644,9 @@
       <c r="K334" s="32"/>
       <c r="L334" s="32"/>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12">
       <c r="A335" s="5" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B335" s="32"/>
       <c r="D335" s="32"/>
@@ -9662,9 +9659,9 @@
       <c r="K335" s="32"/>
       <c r="L335" s="32"/>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12">
       <c r="A336" s="5" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B336" s="32"/>
       <c r="D336" s="32"/>
@@ -9677,9 +9674,9 @@
       <c r="K336" s="32"/>
       <c r="L336" s="32"/>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12">
       <c r="A337" s="5" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B337" s="32"/>
       <c r="D337" s="32"/>
@@ -9692,9 +9689,9 @@
       <c r="K337" s="32"/>
       <c r="L337" s="32"/>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12">
       <c r="A338" s="5" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B338" s="32"/>
       <c r="D338" s="32"/>
@@ -9707,9 +9704,9 @@
       <c r="K338" s="32"/>
       <c r="L338" s="32"/>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12">
       <c r="A339" s="5" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B339" s="32"/>
       <c r="D339" s="32"/>
@@ -9722,9 +9719,9 @@
       <c r="K339" s="32"/>
       <c r="L339" s="32"/>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12">
       <c r="A340" s="5" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B340" s="32"/>
       <c r="D340" s="32"/>
@@ -9737,9 +9734,9 @@
       <c r="K340" s="32"/>
       <c r="L340" s="32"/>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12">
       <c r="A341" s="5" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B341" s="32"/>
       <c r="D341" s="32"/>
@@ -9752,9 +9749,9 @@
       <c r="K341" s="32"/>
       <c r="L341" s="32"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12">
       <c r="A342" s="5" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B342" s="32"/>
       <c r="D342" s="32"/>
@@ -9767,9 +9764,9 @@
       <c r="K342" s="32"/>
       <c r="L342" s="32"/>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12">
       <c r="A343" s="5" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B343" s="32"/>
       <c r="D343" s="32"/>
@@ -9782,9 +9779,9 @@
       <c r="K343" s="32"/>
       <c r="L343" s="32"/>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12">
       <c r="A344" s="5" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B344" s="32"/>
       <c r="D344" s="32"/>
@@ -9797,9 +9794,9 @@
       <c r="K344" s="32"/>
       <c r="L344" s="32"/>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12">
       <c r="A345" s="5" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B345" s="32"/>
       <c r="D345" s="32"/>
@@ -9812,9 +9809,9 @@
       <c r="K345" s="32"/>
       <c r="L345" s="32"/>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12">
       <c r="A346" s="5" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B346" s="32"/>
       <c r="D346" s="32"/>
@@ -9827,9 +9824,9 @@
       <c r="K346" s="32"/>
       <c r="L346" s="32"/>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12">
       <c r="A347" s="5" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B347" s="32"/>
       <c r="D347" s="32"/>
@@ -9842,9 +9839,9 @@
       <c r="K347" s="32"/>
       <c r="L347" s="32"/>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12">
       <c r="A348" s="5" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B348" s="32"/>
       <c r="D348" s="32"/>
@@ -9857,9 +9854,9 @@
       <c r="K348" s="32"/>
       <c r="L348" s="32"/>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12">
       <c r="A349" s="5" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B349" s="32"/>
       <c r="D349" s="32"/>
@@ -9872,9 +9869,9 @@
       <c r="K349" s="32"/>
       <c r="L349" s="32"/>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12">
       <c r="A350" s="5" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B350" s="32"/>
       <c r="D350" s="32"/>
@@ -9887,9 +9884,9 @@
       <c r="K350" s="32"/>
       <c r="L350" s="32"/>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12">
       <c r="A351" s="32" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B351" s="32"/>
       <c r="D351" s="32"/>
@@ -9902,9 +9899,9 @@
       <c r="K351" s="32"/>
       <c r="L351" s="32"/>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12">
       <c r="A352" s="32" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B352" s="32"/>
       <c r="D352" s="32"/>
@@ -9917,9 +9914,9 @@
       <c r="K352" s="32"/>
       <c r="L352" s="32"/>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353" s="32" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B353" s="32"/>
       <c r="D353" s="32"/>
@@ -9932,9 +9929,9 @@
       <c r="K353" s="32"/>
       <c r="L353" s="32"/>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354" s="32" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B354" s="32"/>
       <c r="D354" s="32"/>
@@ -9947,9 +9944,9 @@
       <c r="K354" s="32"/>
       <c r="L354" s="32"/>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355" s="32" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B355" s="32"/>
       <c r="D355" s="32"/>
@@ -9962,9 +9959,9 @@
       <c r="K355" s="32"/>
       <c r="L355" s="32"/>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356" s="32" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B356" s="32"/>
       <c r="D356" s="32"/>
@@ -9977,9 +9974,9 @@
       <c r="K356" s="32"/>
       <c r="L356" s="32"/>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357" s="32" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B357" s="32"/>
       <c r="D357" s="32"/>
@@ -9992,9 +9989,9 @@
       <c r="K357" s="32"/>
       <c r="L357" s="32"/>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358" s="32" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B358" s="32"/>
       <c r="D358" s="32"/>
@@ -10007,9 +10004,9 @@
       <c r="K358" s="32"/>
       <c r="L358" s="32"/>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359" s="32" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B359" s="32"/>
       <c r="D359" s="32"/>
@@ -10022,9 +10019,9 @@
       <c r="K359" s="32"/>
       <c r="L359" s="32"/>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360" s="32" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B360" s="32"/>
       <c r="D360" s="32"/>
@@ -10037,9 +10034,9 @@
       <c r="K360" s="32"/>
       <c r="L360" s="32"/>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361" s="32" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B361" s="32"/>
       <c r="D361" s="32"/>
@@ -10052,9 +10049,9 @@
       <c r="K361" s="32"/>
       <c r="L361" s="32"/>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="A362" s="32" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B362" s="32"/>
       <c r="D362" s="32"/>
@@ -10067,9 +10064,9 @@
       <c r="K362" s="32"/>
       <c r="L362" s="32"/>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="A363" s="32" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B363" s="32"/>
       <c r="D363" s="32"/>
@@ -10082,9 +10079,9 @@
       <c r="K363" s="32"/>
       <c r="L363" s="32"/>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12">
       <c r="A364" s="32" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B364" s="32"/>
       <c r="D364" s="32"/>
@@ -10097,9 +10094,9 @@
       <c r="K364" s="32"/>
       <c r="L364" s="32"/>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12">
       <c r="A365" s="32" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B365" s="32"/>
       <c r="D365" s="32"/>
@@ -10112,9 +10109,9 @@
       <c r="K365" s="32"/>
       <c r="L365" s="32"/>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12">
       <c r="A366" s="32" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B366" s="32"/>
       <c r="D366" s="32"/>
@@ -10127,9 +10124,9 @@
       <c r="K366" s="32"/>
       <c r="L366" s="32"/>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12">
       <c r="A367" s="32" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B367" s="32"/>
       <c r="D367" s="32"/>
@@ -10142,9 +10139,9 @@
       <c r="K367" s="32"/>
       <c r="L367" s="32"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368" s="32" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B368" s="32"/>
       <c r="D368" s="32"/>
@@ -10157,9 +10154,9 @@
       <c r="K368" s="32"/>
       <c r="L368" s="32"/>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12">
       <c r="A369" s="32" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B369" s="32"/>
       <c r="D369" s="32"/>
@@ -10172,9 +10169,9 @@
       <c r="K369" s="32"/>
       <c r="L369" s="32"/>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12">
       <c r="A370" s="32" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B370" s="32"/>
       <c r="D370" s="32"/>
@@ -10187,9 +10184,9 @@
       <c r="K370" s="32"/>
       <c r="L370" s="32"/>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12">
       <c r="A371" s="32" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B371" s="32"/>
       <c r="D371" s="32"/>
@@ -10202,9 +10199,9 @@
       <c r="K371" s="32"/>
       <c r="L371" s="32"/>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12">
       <c r="A372" s="32" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B372" s="32"/>
       <c r="D372" s="32"/>
@@ -10217,9 +10214,9 @@
       <c r="K372" s="32"/>
       <c r="L372" s="32"/>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12">
       <c r="A373" s="32" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B373" s="32"/>
       <c r="D373" s="32"/>
@@ -10232,9 +10229,9 @@
       <c r="K373" s="32"/>
       <c r="L373" s="32"/>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12">
       <c r="A374" s="32" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B374" s="32"/>
       <c r="D374" s="32"/>
@@ -10247,9 +10244,9 @@
       <c r="K374" s="32"/>
       <c r="L374" s="32"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12">
       <c r="A375" s="32" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B375" s="32"/>
       <c r="D375" s="32"/>
@@ -10262,9 +10259,9 @@
       <c r="K375" s="32"/>
       <c r="L375" s="32"/>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12">
       <c r="A376" s="32" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B376" s="32"/>
       <c r="D376" s="32"/>
@@ -10277,9 +10274,9 @@
       <c r="K376" s="32"/>
       <c r="L376" s="32"/>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12">
       <c r="A377" s="32" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B377" s="32"/>
       <c r="D377" s="32"/>
@@ -10292,9 +10289,9 @@
       <c r="K377" s="32"/>
       <c r="L377" s="32"/>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12">
       <c r="A378" s="32" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B378" s="32"/>
       <c r="D378" s="32"/>
@@ -10307,9 +10304,9 @@
       <c r="K378" s="32"/>
       <c r="L378" s="32"/>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12">
       <c r="A379" s="32" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B379" s="32"/>
       <c r="D379" s="32"/>
@@ -10322,9 +10319,9 @@
       <c r="K379" s="32"/>
       <c r="L379" s="32"/>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12">
       <c r="A380" s="32" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B380" s="32"/>
       <c r="D380" s="32"/>
@@ -10337,9 +10334,9 @@
       <c r="K380" s="32"/>
       <c r="L380" s="32"/>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12">
       <c r="A381" s="32" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B381" s="32"/>
       <c r="D381" s="32"/>
@@ -10352,9 +10349,9 @@
       <c r="K381" s="32"/>
       <c r="L381" s="32"/>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12">
       <c r="A382" s="32" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B382" s="32"/>
       <c r="D382" s="32"/>
@@ -10367,9 +10364,9 @@
       <c r="K382" s="32"/>
       <c r="L382" s="32"/>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12">
       <c r="A383" s="32" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B383" s="32"/>
       <c r="D383" s="32"/>
@@ -10382,9 +10379,9 @@
       <c r="K383" s="32"/>
       <c r="L383" s="32"/>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12">
       <c r="A384" s="32" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B384" s="32"/>
       <c r="D384" s="32"/>
@@ -10397,9 +10394,9 @@
       <c r="K384" s="32"/>
       <c r="L384" s="32"/>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12">
       <c r="A385" s="32" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B385" s="32"/>
       <c r="D385" s="32"/>
@@ -10412,9 +10409,9 @@
       <c r="K385" s="32"/>
       <c r="L385" s="32"/>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12">
       <c r="A386" s="32" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B386" s="32"/>
       <c r="D386" s="32"/>
@@ -10427,9 +10424,9 @@
       <c r="K386" s="32"/>
       <c r="L386" s="32"/>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12">
       <c r="A387" s="32" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B387" s="32"/>
       <c r="D387" s="32"/>
@@ -10442,9 +10439,9 @@
       <c r="K387" s="32"/>
       <c r="L387" s="32"/>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12">
       <c r="A388" s="32" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B388" s="32"/>
       <c r="D388" s="32"/>
@@ -10457,9 +10454,9 @@
       <c r="K388" s="32"/>
       <c r="L388" s="32"/>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12">
       <c r="A389" s="32" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B389" s="32"/>
       <c r="D389" s="32"/>
@@ -10472,9 +10469,9 @@
       <c r="K389" s="32"/>
       <c r="L389" s="32"/>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12">
       <c r="A390" s="32" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B390" s="32"/>
       <c r="D390" s="32"/>
@@ -10487,9 +10484,9 @@
       <c r="K390" s="32"/>
       <c r="L390" s="32"/>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12">
       <c r="A391" s="32" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B391" s="32"/>
       <c r="D391" s="32"/>
@@ -10502,9 +10499,9 @@
       <c r="K391" s="32"/>
       <c r="L391" s="32"/>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12">
       <c r="A392" s="32" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B392" s="32"/>
       <c r="D392" s="32"/>
@@ -10517,9 +10514,9 @@
       <c r="K392" s="32"/>
       <c r="L392" s="32"/>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12">
       <c r="A393" s="32" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B393" s="32"/>
       <c r="D393" s="32"/>
@@ -10532,9 +10529,9 @@
       <c r="K393" s="32"/>
       <c r="L393" s="32"/>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12">
       <c r="A394" s="32" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B394" s="32"/>
       <c r="D394" s="32"/>
@@ -10547,9 +10544,9 @@
       <c r="K394" s="32"/>
       <c r="L394" s="32"/>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12">
       <c r="A395" s="32" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B395" s="32"/>
       <c r="D395" s="32"/>
@@ -10562,9 +10559,9 @@
       <c r="K395" s="32"/>
       <c r="L395" s="32"/>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12">
       <c r="A396" s="32" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B396" s="32"/>
       <c r="D396" s="32"/>
@@ -10577,9 +10574,9 @@
       <c r="K396" s="32"/>
       <c r="L396" s="32"/>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12">
       <c r="A397" s="32" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B397" s="32"/>
       <c r="D397" s="32"/>
@@ -10592,9 +10589,9 @@
       <c r="K397" s="32"/>
       <c r="L397" s="32"/>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12">
       <c r="A398" s="32" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B398" s="32"/>
       <c r="D398" s="32"/>
@@ -10607,9 +10604,9 @@
       <c r="K398" s="32"/>
       <c r="L398" s="32"/>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12">
       <c r="A399" s="32" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B399" s="32"/>
       <c r="D399" s="32"/>
@@ -10622,9 +10619,9 @@
       <c r="K399" s="32"/>
       <c r="L399" s="32"/>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12">
       <c r="A400" s="32" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B400" s="32"/>
       <c r="D400" s="32"/>
@@ -10637,9 +10634,9 @@
       <c r="K400" s="32"/>
       <c r="L400" s="32"/>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12">
       <c r="A401" s="32" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B401" s="32"/>
       <c r="D401" s="32"/>
@@ -10652,9 +10649,9 @@
       <c r="K401" s="32"/>
       <c r="L401" s="32"/>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12">
       <c r="A402" s="32" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B402" s="32"/>
       <c r="D402" s="32"/>
@@ -10667,9 +10664,9 @@
       <c r="K402" s="32"/>
       <c r="L402" s="32"/>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12">
       <c r="A403" s="32" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B403" s="32"/>
       <c r="D403" s="32"/>
@@ -10682,9 +10679,9 @@
       <c r="K403" s="32"/>
       <c r="L403" s="32"/>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12">
       <c r="A404" s="32" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B404" s="32"/>
       <c r="D404" s="32"/>
@@ -10697,9 +10694,9 @@
       <c r="K404" s="32"/>
       <c r="L404" s="32"/>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12">
       <c r="A405" s="32" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B405" s="32"/>
       <c r="D405" s="32"/>
@@ -10712,9 +10709,9 @@
       <c r="K405" s="32"/>
       <c r="L405" s="32"/>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12">
       <c r="A406" s="32" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B406" s="32"/>
       <c r="D406" s="32"/>
@@ -10727,9 +10724,9 @@
       <c r="K406" s="32"/>
       <c r="L406" s="32"/>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12">
       <c r="A407" s="32" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B407" s="32"/>
       <c r="D407" s="32"/>
@@ -10742,9 +10739,9 @@
       <c r="K407" s="32"/>
       <c r="L407" s="32"/>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12">
       <c r="A408" s="32" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B408" s="32"/>
       <c r="D408" s="32"/>
@@ -10757,9 +10754,9 @@
       <c r="K408" s="32"/>
       <c r="L408" s="32"/>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12">
       <c r="A409" s="32" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B409" s="32"/>
       <c r="D409" s="32"/>
@@ -10772,9 +10769,9 @@
       <c r="K409" s="32"/>
       <c r="L409" s="32"/>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12">
       <c r="A410" s="32" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B410" s="32"/>
       <c r="D410" s="32"/>
@@ -10787,9 +10784,9 @@
       <c r="K410" s="32"/>
       <c r="L410" s="32"/>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12">
       <c r="A411" s="32" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B411" s="32"/>
       <c r="D411" s="32"/>
@@ -10802,9 +10799,9 @@
       <c r="K411" s="32"/>
       <c r="L411" s="32"/>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12">
       <c r="A412" s="32" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B412" s="32"/>
       <c r="D412" s="32"/>
@@ -10817,9 +10814,9 @@
       <c r="K412" s="32"/>
       <c r="L412" s="32"/>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12">
       <c r="A413" s="32" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B413" s="32"/>
       <c r="D413" s="32"/>
@@ -10832,9 +10829,9 @@
       <c r="K413" s="32"/>
       <c r="L413" s="32"/>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12">
       <c r="A414" s="32" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B414" s="32"/>
       <c r="D414" s="32"/>
@@ -10847,9 +10844,9 @@
       <c r="K414" s="32"/>
       <c r="L414" s="32"/>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12">
       <c r="A415" s="32" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B415" s="32"/>
       <c r="D415" s="32"/>
@@ -10862,9 +10859,9 @@
       <c r="K415" s="32"/>
       <c r="L415" s="32"/>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12">
       <c r="A416" s="32" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B416" s="32"/>
       <c r="D416" s="32"/>
@@ -10877,9 +10874,9 @@
       <c r="K416" s="32"/>
       <c r="L416" s="32"/>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12">
       <c r="A417" s="32" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B417" s="32"/>
       <c r="D417" s="32"/>
@@ -10892,9 +10889,9 @@
       <c r="K417" s="32"/>
       <c r="L417" s="32"/>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12">
       <c r="A418" s="32" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B418" s="32"/>
       <c r="D418" s="32"/>
@@ -10907,9 +10904,9 @@
       <c r="K418" s="32"/>
       <c r="L418" s="32"/>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12">
       <c r="A419" s="32" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B419" s="32"/>
       <c r="D419" s="32"/>
@@ -10922,9 +10919,9 @@
       <c r="K419" s="32"/>
       <c r="L419" s="32"/>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12">
       <c r="A420" s="32" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B420" s="32"/>
       <c r="D420" s="32"/>
@@ -10937,9 +10934,9 @@
       <c r="K420" s="32"/>
       <c r="L420" s="32"/>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12">
       <c r="A421" s="32" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B421" s="32"/>
       <c r="D421" s="32"/>
@@ -10952,9 +10949,9 @@
       <c r="K421" s="32"/>
       <c r="L421" s="32"/>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12">
       <c r="A422" s="32" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B422" s="32"/>
       <c r="D422" s="32"/>
@@ -10967,9 +10964,9 @@
       <c r="K422" s="32"/>
       <c r="L422" s="32"/>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12">
       <c r="A423" s="32" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B423" s="32"/>
       <c r="D423" s="32"/>
@@ -10982,9 +10979,9 @@
       <c r="K423" s="32"/>
       <c r="L423" s="32"/>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12">
       <c r="A424" s="32" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B424" s="32"/>
       <c r="D424" s="32"/>
@@ -10997,9 +10994,9 @@
       <c r="K424" s="32"/>
       <c r="L424" s="32"/>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12">
       <c r="A425" s="32" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B425" s="32"/>
       <c r="D425" s="32"/>
@@ -11012,9 +11009,9 @@
       <c r="K425" s="32"/>
       <c r="L425" s="32"/>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12">
       <c r="A426" s="32" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B426" s="32"/>
       <c r="D426" s="32"/>
@@ -11027,9 +11024,9 @@
       <c r="K426" s="32"/>
       <c r="L426" s="32"/>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12">
       <c r="A427" s="32" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B427" s="32"/>
       <c r="D427" s="32"/>
@@ -11042,9 +11039,9 @@
       <c r="K427" s="32"/>
       <c r="L427" s="32"/>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12">
       <c r="A428" s="32" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B428" s="32"/>
       <c r="D428" s="32"/>
@@ -11057,9 +11054,9 @@
       <c r="K428" s="32"/>
       <c r="L428" s="32"/>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12">
       <c r="A429" s="32" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B429" s="32"/>
       <c r="D429" s="32"/>
@@ -11072,9 +11069,9 @@
       <c r="K429" s="32"/>
       <c r="L429" s="32"/>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12">
       <c r="A430" s="32" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B430" s="32"/>
       <c r="D430" s="32"/>
@@ -11087,9 +11084,9 @@
       <c r="K430" s="32"/>
       <c r="L430" s="32"/>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12">
       <c r="A431" s="32" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B431" s="32"/>
       <c r="D431" s="32"/>
@@ -11102,9 +11099,9 @@
       <c r="K431" s="32"/>
       <c r="L431" s="32"/>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12">
       <c r="A432" s="32" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B432" s="32"/>
       <c r="D432" s="32"/>
@@ -11117,9 +11114,9 @@
       <c r="K432" s="32"/>
       <c r="L432" s="32"/>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12">
       <c r="A433" s="32" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B433" s="32"/>
       <c r="D433" s="32"/>
@@ -11132,9 +11129,9 @@
       <c r="K433" s="32"/>
       <c r="L433" s="32"/>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12">
       <c r="A434" s="32" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B434" s="32"/>
       <c r="D434" s="32"/>
@@ -11147,9 +11144,9 @@
       <c r="K434" s="32"/>
       <c r="L434" s="32"/>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12">
       <c r="A435" s="32" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B435" s="32"/>
       <c r="D435" s="32"/>
@@ -11162,9 +11159,9 @@
       <c r="K435" s="32"/>
       <c r="L435" s="32"/>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12">
       <c r="A436" s="32" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B436" s="32"/>
       <c r="D436" s="32"/>
@@ -11177,9 +11174,9 @@
       <c r="K436" s="32"/>
       <c r="L436" s="32"/>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12">
       <c r="A437" s="32" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B437" s="32"/>
       <c r="D437" s="32"/>
@@ -11192,9 +11189,9 @@
       <c r="K437" s="32"/>
       <c r="L437" s="32"/>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12">
       <c r="A438" s="32" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B438" s="32"/>
       <c r="D438" s="32"/>
@@ -11207,9 +11204,9 @@
       <c r="K438" s="32"/>
       <c r="L438" s="32"/>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12">
       <c r="A439" s="32" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B439" s="32"/>
       <c r="D439" s="32"/>
@@ -11222,9 +11219,9 @@
       <c r="K439" s="32"/>
       <c r="L439" s="32"/>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12">
       <c r="A440" s="32" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B440" s="32"/>
       <c r="D440" s="32"/>
@@ -11237,9 +11234,9 @@
       <c r="K440" s="32"/>
       <c r="L440" s="32"/>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12">
       <c r="A441" s="32" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B441" s="32"/>
       <c r="D441" s="32"/>
@@ -11252,9 +11249,9 @@
       <c r="K441" s="32"/>
       <c r="L441" s="32"/>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12">
       <c r="A442" s="32" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B442" s="32"/>
       <c r="D442" s="32"/>
@@ -11267,9 +11264,9 @@
       <c r="K442" s="32"/>
       <c r="L442" s="32"/>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12">
       <c r="A443" s="32" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B443" s="32"/>
       <c r="D443" s="32"/>
@@ -11282,9 +11279,9 @@
       <c r="K443" s="32"/>
       <c r="L443" s="32"/>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12">
       <c r="A444" s="32" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B444" s="32"/>
       <c r="D444" s="32"/>
@@ -11297,9 +11294,9 @@
       <c r="K444" s="32"/>
       <c r="L444" s="32"/>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12">
       <c r="A445" s="32" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B445" s="32"/>
       <c r="D445" s="32"/>
@@ -11312,9 +11309,9 @@
       <c r="K445" s="32"/>
       <c r="L445" s="32"/>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12">
       <c r="A446" s="32" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B446" s="32"/>
       <c r="D446" s="32"/>
@@ -11327,9 +11324,9 @@
       <c r="K446" s="32"/>
       <c r="L446" s="32"/>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12">
       <c r="A447" s="32" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B447" s="32"/>
       <c r="D447" s="32"/>
@@ -11342,9 +11339,9 @@
       <c r="K447" s="32"/>
       <c r="L447" s="32"/>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12">
       <c r="A448" s="32" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B448" s="32"/>
       <c r="D448" s="32"/>
@@ -11357,9 +11354,9 @@
       <c r="K448" s="32"/>
       <c r="L448" s="32"/>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12">
       <c r="A449" s="32" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B449" s="32"/>
       <c r="D449" s="32"/>
@@ -11372,9 +11369,9 @@
       <c r="K449" s="32"/>
       <c r="L449" s="32"/>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12">
       <c r="A450" s="32" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B450" s="32"/>
       <c r="D450" s="32"/>
@@ -11387,9 +11384,9 @@
       <c r="K450" s="32"/>
       <c r="L450" s="32"/>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12">
       <c r="A451" s="32" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B451" s="32"/>
       <c r="D451" s="32"/>
@@ -11402,9 +11399,9 @@
       <c r="K451" s="32"/>
       <c r="L451" s="32"/>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12">
       <c r="A452" s="32" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B452" s="32"/>
       <c r="D452" s="32"/>
@@ -11417,9 +11414,9 @@
       <c r="K452" s="32"/>
       <c r="L452" s="32"/>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12">
       <c r="A453" s="32" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B453" s="32"/>
       <c r="D453" s="32"/>
@@ -11432,9 +11429,9 @@
       <c r="K453" s="32"/>
       <c r="L453" s="32"/>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12">
       <c r="A454" s="32" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B454" s="32"/>
       <c r="D454" s="32"/>
@@ -11447,9 +11444,9 @@
       <c r="K454" s="32"/>
       <c r="L454" s="32"/>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12">
       <c r="A455" s="32" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B455" s="32"/>
       <c r="D455" s="32"/>
@@ -11462,9 +11459,9 @@
       <c r="K455" s="32"/>
       <c r="L455" s="32"/>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12">
       <c r="A456" s="32" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B456" s="32"/>
       <c r="D456" s="32"/>
@@ -11477,9 +11474,9 @@
       <c r="K456" s="32"/>
       <c r="L456" s="32"/>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12">
       <c r="A457" s="32" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B457" s="32"/>
       <c r="D457" s="32"/>
@@ -11492,9 +11489,9 @@
       <c r="K457" s="32"/>
       <c r="L457" s="32"/>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12">
       <c r="A458" s="32" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B458" s="32"/>
       <c r="D458" s="32"/>
@@ -11507,9 +11504,9 @@
       <c r="K458" s="32"/>
       <c r="L458" s="32"/>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12">
       <c r="A459" s="32" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B459" s="32"/>
       <c r="D459" s="32"/>
@@ -11522,9 +11519,9 @@
       <c r="K459" s="32"/>
       <c r="L459" s="32"/>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12">
       <c r="A460" s="32" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B460" s="32"/>
       <c r="D460" s="32"/>
@@ -11537,9 +11534,9 @@
       <c r="K460" s="32"/>
       <c r="L460" s="32"/>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12">
       <c r="A461" s="32" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B461" s="32"/>
       <c r="D461" s="32"/>
@@ -11552,9 +11549,9 @@
       <c r="K461" s="32"/>
       <c r="L461" s="32"/>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12">
       <c r="A462" s="32" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B462" s="32"/>
       <c r="D462" s="32"/>
@@ -11567,9 +11564,9 @@
       <c r="K462" s="32"/>
       <c r="L462" s="32"/>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12">
       <c r="A463" s="32" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B463" s="32"/>
       <c r="D463" s="32"/>
@@ -11582,9 +11579,9 @@
       <c r="K463" s="32"/>
       <c r="L463" s="32"/>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12">
       <c r="A464" s="32" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B464" s="32"/>
       <c r="D464" s="32"/>
@@ -11597,9 +11594,9 @@
       <c r="K464" s="32"/>
       <c r="L464" s="32"/>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12">
       <c r="A465" s="32" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B465" s="32"/>
       <c r="D465" s="32"/>
@@ -11612,9 +11609,9 @@
       <c r="K465" s="32"/>
       <c r="L465" s="32"/>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12">
       <c r="A466" s="32" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B466" s="32"/>
       <c r="D466" s="32"/>
@@ -11627,9 +11624,9 @@
       <c r="K466" s="32"/>
       <c r="L466" s="32"/>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12">
       <c r="A467" s="32" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B467" s="32"/>
       <c r="D467" s="32"/>
@@ -11642,9 +11639,9 @@
       <c r="K467" s="32"/>
       <c r="L467" s="32"/>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12">
       <c r="A468" s="32" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B468" s="32"/>
       <c r="D468" s="32"/>
@@ -11657,9 +11654,9 @@
       <c r="K468" s="32"/>
       <c r="L468" s="32"/>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12">
       <c r="A469" s="32" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B469" s="32"/>
       <c r="D469" s="32"/>
@@ -11672,9 +11669,9 @@
       <c r="K469" s="32"/>
       <c r="L469" s="32"/>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12">
       <c r="A470" s="32" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B470" s="32"/>
       <c r="D470" s="32"/>
@@ -11687,9 +11684,9 @@
       <c r="K470" s="32"/>
       <c r="L470" s="32"/>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12">
       <c r="A471" s="32" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B471" s="32"/>
       <c r="D471" s="32"/>
@@ -11702,9 +11699,9 @@
       <c r="K471" s="32"/>
       <c r="L471" s="32"/>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12">
       <c r="A472" s="32" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B472" s="32"/>
       <c r="D472" s="32"/>
@@ -11717,9 +11714,9 @@
       <c r="K472" s="32"/>
       <c r="L472" s="32"/>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12">
       <c r="A473" s="32" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B473" s="32"/>
       <c r="D473" s="32"/>
@@ -11732,9 +11729,9 @@
       <c r="K473" s="32"/>
       <c r="L473" s="32"/>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12">
       <c r="A474" s="32" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B474" s="32"/>
       <c r="D474" s="32"/>
@@ -11747,9 +11744,9 @@
       <c r="K474" s="32"/>
       <c r="L474" s="32"/>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12">
       <c r="A475" s="32" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B475" s="32"/>
       <c r="D475" s="32"/>
@@ -11762,9 +11759,9 @@
       <c r="K475" s="32"/>
       <c r="L475" s="32"/>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12">
       <c r="A476" s="32" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B476" s="32"/>
       <c r="D476" s="32"/>
@@ -11777,9 +11774,9 @@
       <c r="K476" s="32"/>
       <c r="L476" s="32"/>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12">
       <c r="A477" s="32" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B477" s="32"/>
       <c r="D477" s="32"/>
@@ -11792,9 +11789,9 @@
       <c r="K477" s="32"/>
       <c r="L477" s="32"/>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12">
       <c r="A478" s="32" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B478" s="32"/>
       <c r="D478" s="32"/>
@@ -11807,9 +11804,9 @@
       <c r="K478" s="32"/>
       <c r="L478" s="32"/>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12">
       <c r="A479" s="32" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B479" s="32"/>
       <c r="D479" s="32"/>
@@ -11822,9 +11819,9 @@
       <c r="K479" s="32"/>
       <c r="L479" s="32"/>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12">
       <c r="A480" s="32" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B480" s="32"/>
       <c r="D480" s="32"/>
@@ -11837,9 +11834,9 @@
       <c r="K480" s="32"/>
       <c r="L480" s="32"/>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12">
       <c r="A481" s="32" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B481" s="32"/>
       <c r="D481" s="32"/>
@@ -11852,9 +11849,9 @@
       <c r="K481" s="32"/>
       <c r="L481" s="32"/>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12">
       <c r="A482" s="32" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B482" s="32"/>
       <c r="D482" s="32"/>
@@ -11867,9 +11864,9 @@
       <c r="K482" s="32"/>
       <c r="L482" s="32"/>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12">
       <c r="A483" s="32" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B483" s="32"/>
       <c r="D483" s="32"/>
@@ -11882,9 +11879,9 @@
       <c r="K483" s="32"/>
       <c r="L483" s="32"/>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12">
       <c r="A484" s="32" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B484" s="32"/>
       <c r="D484" s="32"/>
@@ -11897,9 +11894,9 @@
       <c r="K484" s="32"/>
       <c r="L484" s="32"/>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12">
       <c r="A485" s="32" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B485" s="32"/>
       <c r="D485" s="32"/>
@@ -11912,9 +11909,9 @@
       <c r="K485" s="32"/>
       <c r="L485" s="32"/>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12">
       <c r="A486" s="32" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B486" s="32"/>
       <c r="D486" s="32"/>
@@ -11927,9 +11924,9 @@
       <c r="K486" s="32"/>
       <c r="L486" s="32"/>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12">
       <c r="A487" s="32" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B487" s="32"/>
       <c r="D487" s="32"/>
@@ -11942,9 +11939,9 @@
       <c r="K487" s="32"/>
       <c r="L487" s="32"/>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12">
       <c r="A488" s="32" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B488" s="32"/>
       <c r="D488" s="32"/>
@@ -11957,9 +11954,9 @@
       <c r="K488" s="32"/>
       <c r="L488" s="32"/>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12">
       <c r="A489" s="32" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B489" s="32"/>
       <c r="D489" s="32"/>
@@ -11972,9 +11969,9 @@
       <c r="K489" s="32"/>
       <c r="L489" s="32"/>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12">
       <c r="A490" s="32" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B490" s="32"/>
       <c r="D490" s="32"/>
@@ -11987,9 +11984,9 @@
       <c r="K490" s="32"/>
       <c r="L490" s="32"/>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12">
       <c r="A491" s="32" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B491" s="32"/>
       <c r="D491" s="32"/>
@@ -12002,9 +11999,9 @@
       <c r="K491" s="32"/>
       <c r="L491" s="32"/>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12">
       <c r="A492" s="32" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="B492" s="32"/>
       <c r="D492" s="32"/>
@@ -12017,9 +12014,9 @@
       <c r="K492" s="32"/>
       <c r="L492" s="32"/>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12">
       <c r="A493" s="32" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B493" s="32"/>
       <c r="D493" s="32"/>
@@ -12032,9 +12029,9 @@
       <c r="K493" s="32"/>
       <c r="L493" s="32"/>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12">
       <c r="A494" s="32" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B494" s="32"/>
       <c r="D494" s="32"/>
@@ -12047,9 +12044,9 @@
       <c r="K494" s="32"/>
       <c r="L494" s="32"/>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12">
       <c r="A495" s="32" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B495" s="32"/>
       <c r="D495" s="32"/>
@@ -12062,9 +12059,9 @@
       <c r="K495" s="32"/>
       <c r="L495" s="32"/>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12">
       <c r="A496" s="32" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B496" s="32"/>
       <c r="D496" s="32"/>
@@ -12077,9 +12074,9 @@
       <c r="K496" s="32"/>
       <c r="L496" s="32"/>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12">
       <c r="A497" s="32" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B497" s="32"/>
       <c r="D497" s="32"/>
@@ -12092,9 +12089,9 @@
       <c r="K497" s="32"/>
       <c r="L497" s="32"/>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12">
       <c r="A498" s="32" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B498" s="32"/>
       <c r="D498" s="32"/>
@@ -12107,7 +12104,7 @@
       <c r="K498" s="32"/>
       <c r="L498" s="32"/>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12">
       <c r="A499" s="35" t="b">
         <v>0</v>
       </c>
@@ -12122,9 +12119,9 @@
       <c r="K499" s="32"/>
       <c r="L499" s="32"/>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12">
       <c r="A500" s="32" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B500" s="32"/>
       <c r="D500" s="32"/>
@@ -12137,9 +12134,9 @@
       <c r="K500" s="32"/>
       <c r="L500" s="32"/>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12">
       <c r="A501" s="32" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B501" s="32"/>
       <c r="D501" s="32"/>
@@ -12152,9 +12149,9 @@
       <c r="K501" s="32"/>
       <c r="L501" s="32"/>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12">
       <c r="A502" s="32" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B502" s="32"/>
       <c r="D502" s="32"/>
@@ -12167,9 +12164,9 @@
       <c r="K502" s="32"/>
       <c r="L502" s="32"/>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12">
       <c r="A503" s="32" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B503" s="32"/>
       <c r="D503" s="32"/>
@@ -12182,9 +12179,9 @@
       <c r="K503" s="32"/>
       <c r="L503" s="32"/>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12">
       <c r="A504" s="32" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B504" s="32"/>
       <c r="D504" s="32"/>
@@ -12197,9 +12194,9 @@
       <c r="K504" s="32"/>
       <c r="L504" s="32"/>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12">
       <c r="A505" s="32" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B505" s="32"/>
       <c r="D505" s="32"/>
@@ -12212,9 +12209,9 @@
       <c r="K505" s="32"/>
       <c r="L505" s="32"/>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12">
       <c r="A506" s="32" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B506" s="32"/>
       <c r="D506" s="32"/>
@@ -12227,9 +12224,9 @@
       <c r="K506" s="32"/>
       <c r="L506" s="32"/>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12">
       <c r="A507" s="32" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B507" s="32"/>
       <c r="D507" s="32"/>
@@ -12242,9 +12239,9 @@
       <c r="K507" s="32"/>
       <c r="L507" s="32"/>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12">
       <c r="A508" s="32" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B508" s="32"/>
       <c r="D508" s="32"/>
@@ -12257,9 +12254,9 @@
       <c r="K508" s="32"/>
       <c r="L508" s="32"/>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12">
       <c r="A509" s="32" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B509" s="32"/>
       <c r="D509" s="32"/>
@@ -12272,9 +12269,9 @@
       <c r="K509" s="32"/>
       <c r="L509" s="32"/>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12">
       <c r="A510" s="32" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B510" s="32"/>
       <c r="D510" s="32"/>
@@ -12287,9 +12284,9 @@
       <c r="K510" s="32"/>
       <c r="L510" s="32"/>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12">
       <c r="A511" s="32" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B511" s="32"/>
       <c r="D511" s="32"/>
@@ -12302,9 +12299,9 @@
       <c r="K511" s="32"/>
       <c r="L511" s="32"/>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12">
       <c r="A512" s="32" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B512" s="32"/>
       <c r="D512" s="32"/>
@@ -12317,9 +12314,9 @@
       <c r="K512" s="32"/>
       <c r="L512" s="32"/>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12">
       <c r="A513" s="32" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B513" s="32"/>
       <c r="D513" s="32"/>
@@ -12332,9 +12329,9 @@
       <c r="K513" s="32"/>
       <c r="L513" s="32"/>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12">
       <c r="A514" s="32" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B514" s="32"/>
       <c r="D514" s="32"/>
@@ -12347,9 +12344,9 @@
       <c r="K514" s="32"/>
       <c r="L514" s="32"/>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12">
       <c r="A515" s="32" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B515" s="32"/>
       <c r="D515" s="32"/>
@@ -12362,9 +12359,9 @@
       <c r="K515" s="32"/>
       <c r="L515" s="32"/>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12">
       <c r="A516" s="32" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B516" s="32"/>
       <c r="D516" s="32"/>
@@ -12377,9 +12374,9 @@
       <c r="K516" s="32"/>
       <c r="L516" s="32"/>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12">
       <c r="A517" s="32" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B517" s="32"/>
       <c r="D517" s="32"/>
@@ -12392,9 +12389,9 @@
       <c r="K517" s="32"/>
       <c r="L517" s="32"/>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12">
       <c r="A518" s="32" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B518" s="32"/>
       <c r="D518" s="32"/>
@@ -12407,9 +12404,9 @@
       <c r="K518" s="32"/>
       <c r="L518" s="32"/>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12">
       <c r="A519" s="32" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B519" s="32"/>
       <c r="D519" s="32"/>
@@ -12422,9 +12419,9 @@
       <c r="K519" s="32"/>
       <c r="L519" s="32"/>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12">
       <c r="A520" s="32" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B520" s="32"/>
       <c r="D520" s="32"/>
@@ -12437,9 +12434,9 @@
       <c r="K520" s="32"/>
       <c r="L520" s="32"/>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12">
       <c r="A521" s="32" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B521" s="32"/>
       <c r="D521" s="32"/>
@@ -12452,9 +12449,9 @@
       <c r="K521" s="32"/>
       <c r="L521" s="32"/>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12">
       <c r="A522" s="32" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B522" s="32"/>
       <c r="D522" s="32"/>
@@ -12467,9 +12464,9 @@
       <c r="K522" s="32"/>
       <c r="L522" s="32"/>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12">
       <c r="A523" s="32" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B523" s="32"/>
       <c r="D523" s="32"/>
@@ -12482,9 +12479,9 @@
       <c r="K523" s="32"/>
       <c r="L523" s="32"/>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12">
       <c r="A524" s="32" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B524" s="32"/>
       <c r="D524" s="32"/>
@@ -12497,9 +12494,9 @@
       <c r="K524" s="32"/>
       <c r="L524" s="32"/>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12">
       <c r="A525" s="32" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B525" s="32"/>
       <c r="D525" s="32"/>
@@ -12512,9 +12509,9 @@
       <c r="K525" s="32"/>
       <c r="L525" s="32"/>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12">
       <c r="A526" s="32" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B526" s="32"/>
       <c r="D526" s="32"/>
@@ -12527,9 +12524,9 @@
       <c r="K526" s="32"/>
       <c r="L526" s="32"/>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12">
       <c r="A527" s="32" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B527" s="32"/>
       <c r="D527" s="32"/>
@@ -12542,9 +12539,9 @@
       <c r="K527" s="32"/>
       <c r="L527" s="32"/>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12">
       <c r="A528" s="32" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B528" s="32"/>
       <c r="D528" s="32"/>
@@ -12557,9 +12554,9 @@
       <c r="K528" s="32"/>
       <c r="L528" s="32"/>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12">
       <c r="A529" s="32" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B529" s="32"/>
       <c r="D529" s="32"/>
@@ -12572,9 +12569,9 @@
       <c r="K529" s="32"/>
       <c r="L529" s="32"/>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12">
       <c r="A530" s="32" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B530" s="32"/>
       <c r="D530" s="32"/>
@@ -12587,9 +12584,9 @@
       <c r="K530" s="32"/>
       <c r="L530" s="32"/>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12">
       <c r="A531" s="32" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B531" s="32"/>
       <c r="D531" s="32"/>
@@ -12602,9 +12599,9 @@
       <c r="K531" s="32"/>
       <c r="L531" s="32"/>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12">
       <c r="A532" s="32" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B532" s="32"/>
       <c r="D532" s="32"/>
@@ -12617,9 +12614,9 @@
       <c r="K532" s="32"/>
       <c r="L532" s="32"/>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12">
       <c r="A533" s="32" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B533" s="32"/>
       <c r="D533" s="32"/>
@@ -12632,9 +12629,9 @@
       <c r="K533" s="32"/>
       <c r="L533" s="32"/>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12">
       <c r="A534" s="32" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B534" s="32"/>
       <c r="D534" s="32"/>
@@ -12647,9 +12644,9 @@
       <c r="K534" s="32"/>
       <c r="L534" s="32"/>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12">
       <c r="A535" s="32" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B535" s="32"/>
       <c r="D535" s="32"/>
@@ -12662,9 +12659,9 @@
       <c r="K535" s="32"/>
       <c r="L535" s="32"/>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12">
       <c r="A536" s="32" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B536" s="32"/>
       <c r="D536" s="32"/>
@@ -12677,9 +12674,9 @@
       <c r="K536" s="32"/>
       <c r="L536" s="32"/>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12">
       <c r="A537" s="32" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B537" s="32"/>
       <c r="D537" s="32"/>
@@ -12692,9 +12689,9 @@
       <c r="K537" s="32"/>
       <c r="L537" s="32"/>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12">
       <c r="A538" s="32" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B538" s="32"/>
       <c r="D538" s="32"/>
@@ -12707,9 +12704,9 @@
       <c r="K538" s="32"/>
       <c r="L538" s="32"/>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12">
       <c r="A539" s="32" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B539" s="32"/>
       <c r="D539" s="32"/>
@@ -12722,9 +12719,9 @@
       <c r="K539" s="32"/>
       <c r="L539" s="32"/>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12">
       <c r="A540" s="32" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B540" s="32"/>
       <c r="D540" s="32"/>
@@ -12737,9 +12734,9 @@
       <c r="K540" s="32"/>
       <c r="L540" s="32"/>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12">
       <c r="A541" s="32" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B541" s="32"/>
       <c r="D541" s="32"/>
@@ -12752,9 +12749,9 @@
       <c r="K541" s="32"/>
       <c r="L541" s="32"/>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12">
       <c r="A542" s="32" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B542" s="32"/>
       <c r="D542" s="32"/>
@@ -12767,9 +12764,9 @@
       <c r="K542" s="32"/>
       <c r="L542" s="32"/>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12">
       <c r="A543" s="32" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B543" s="32"/>
       <c r="D543" s="32"/>
@@ -12782,9 +12779,9 @@
       <c r="K543" s="32"/>
       <c r="L543" s="32"/>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12">
       <c r="A544" s="32" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B544" s="32"/>
       <c r="D544" s="32"/>
@@ -12797,9 +12794,9 @@
       <c r="K544" s="32"/>
       <c r="L544" s="32"/>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12">
       <c r="A545" s="32" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B545" s="32"/>
       <c r="D545" s="32"/>
@@ -12812,9 +12809,9 @@
       <c r="K545" s="32"/>
       <c r="L545" s="32"/>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12">
       <c r="A546" s="32" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B546" s="32"/>
       <c r="D546" s="32"/>
@@ -12827,9 +12824,9 @@
       <c r="K546" s="32"/>
       <c r="L546" s="32"/>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12">
       <c r="A547" s="32" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B547" s="32"/>
       <c r="D547" s="32"/>
@@ -12842,9 +12839,9 @@
       <c r="K547" s="32"/>
       <c r="L547" s="32"/>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12">
       <c r="A548" s="32" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B548" s="32"/>
       <c r="D548" s="32"/>
@@ -12857,9 +12854,9 @@
       <c r="K548" s="32"/>
       <c r="L548" s="32"/>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12">
       <c r="A549" s="32" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B549" s="32"/>
       <c r="D549" s="32"/>
@@ -12872,9 +12869,9 @@
       <c r="K549" s="32"/>
       <c r="L549" s="32"/>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12">
       <c r="A550" s="32" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B550" s="32"/>
       <c r="D550" s="32"/>
@@ -12887,9 +12884,9 @@
       <c r="K550" s="32"/>
       <c r="L550" s="32"/>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12">
       <c r="A551" s="32" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B551" s="32"/>
       <c r="D551" s="32"/>
@@ -12902,9 +12899,9 @@
       <c r="K551" s="32"/>
       <c r="L551" s="32"/>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12">
       <c r="A552" s="32" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B552" s="32"/>
       <c r="D552" s="32"/>
@@ -12917,9 +12914,9 @@
       <c r="K552" s="32"/>
       <c r="L552" s="32"/>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12">
       <c r="A553" s="32" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B553" s="32"/>
       <c r="D553" s="32"/>
@@ -12932,9 +12929,9 @@
       <c r="K553" s="32"/>
       <c r="L553" s="32"/>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12">
       <c r="A554" s="32" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B554" s="32"/>
       <c r="D554" s="32"/>
@@ -12947,9 +12944,9 @@
       <c r="K554" s="32"/>
       <c r="L554" s="32"/>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12">
       <c r="A555" s="32" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B555" s="32"/>
       <c r="D555" s="32"/>
@@ -12962,9 +12959,9 @@
       <c r="K555" s="32"/>
       <c r="L555" s="32"/>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12">
       <c r="A556" s="32" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B556" s="32"/>
       <c r="D556" s="32"/>
@@ -12977,9 +12974,9 @@
       <c r="K556" s="32"/>
       <c r="L556" s="32"/>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12">
       <c r="A557" s="32" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B557" s="32"/>
       <c r="D557" s="32"/>
@@ -12992,9 +12989,9 @@
       <c r="K557" s="32"/>
       <c r="L557" s="32"/>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12">
       <c r="A558" s="32" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B558" s="32"/>
       <c r="D558" s="32"/>
@@ -13007,9 +13004,9 @@
       <c r="K558" s="32"/>
       <c r="L558" s="32"/>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12">
       <c r="A559" s="32" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B559" s="32"/>
       <c r="D559" s="32"/>
@@ -13022,9 +13019,9 @@
       <c r="K559" s="32"/>
       <c r="L559" s="32"/>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12">
       <c r="A560" s="32" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B560" s="32"/>
       <c r="D560" s="32"/>
@@ -13037,9 +13034,9 @@
       <c r="K560" s="32"/>
       <c r="L560" s="32"/>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12">
       <c r="A561" s="32" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B561" s="32"/>
       <c r="D561" s="32"/>
@@ -13052,9 +13049,9 @@
       <c r="K561" s="32"/>
       <c r="L561" s="32"/>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12">
       <c r="A562" s="32" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B562" s="32"/>
       <c r="D562" s="32"/>
@@ -13067,9 +13064,9 @@
       <c r="K562" s="32"/>
       <c r="L562" s="32"/>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12">
       <c r="A563" s="32" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B563" s="32"/>
       <c r="D563" s="32"/>
@@ -13082,9 +13079,9 @@
       <c r="K563" s="32"/>
       <c r="L563" s="32"/>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12">
       <c r="A564" s="32" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B564" s="32"/>
       <c r="D564" s="32"/>
@@ -13097,9 +13094,9 @@
       <c r="K564" s="32"/>
       <c r="L564" s="32"/>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12">
       <c r="A565" s="32" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B565" s="32"/>
       <c r="D565" s="32"/>
@@ -13112,9 +13109,9 @@
       <c r="K565" s="32"/>
       <c r="L565" s="32"/>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12">
       <c r="A566" s="32" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="B566" s="32"/>
       <c r="D566" s="32"/>
@@ -13127,9 +13124,9 @@
       <c r="K566" s="32"/>
       <c r="L566" s="32"/>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12">
       <c r="A567" s="32" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B567" s="32"/>
       <c r="D567" s="32"/>
@@ -13142,9 +13139,9 @@
       <c r="K567" s="32"/>
       <c r="L567" s="32"/>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12">
       <c r="A568" s="32" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B568" s="32"/>
       <c r="D568" s="32"/>
@@ -13157,9 +13154,9 @@
       <c r="K568" s="32"/>
       <c r="L568" s="32"/>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12">
       <c r="A569" s="32" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B569" s="32"/>
       <c r="D569" s="32"/>
@@ -13172,9 +13169,9 @@
       <c r="K569" s="32"/>
       <c r="L569" s="32"/>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12">
       <c r="A570" s="32" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B570" s="32"/>
       <c r="D570" s="32"/>
@@ -13187,9 +13184,9 @@
       <c r="K570" s="32"/>
       <c r="L570" s="32"/>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12">
       <c r="A571" s="32" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B571" s="32"/>
       <c r="D571" s="32"/>
@@ -13202,9 +13199,9 @@
       <c r="K571" s="32"/>
       <c r="L571" s="32"/>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12">
       <c r="A572" s="32" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B572" s="32"/>
       <c r="D572" s="32"/>
@@ -13217,9 +13214,9 @@
       <c r="K572" s="32"/>
       <c r="L572" s="32"/>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12">
       <c r="A573" s="32" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B573" s="32"/>
       <c r="D573" s="32"/>
@@ -13232,9 +13229,9 @@
       <c r="K573" s="32"/>
       <c r="L573" s="32"/>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12">
       <c r="A574" s="32" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B574" s="32"/>
       <c r="D574" s="32"/>
@@ -13247,9 +13244,9 @@
       <c r="K574" s="32"/>
       <c r="L574" s="32"/>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12">
       <c r="A575" s="32" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B575" s="32"/>
       <c r="D575" s="32"/>
@@ -13262,9 +13259,9 @@
       <c r="K575" s="32"/>
       <c r="L575" s="32"/>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12">
       <c r="A576" s="32" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B576" s="32"/>
       <c r="D576" s="32"/>
@@ -13277,9 +13274,9 @@
       <c r="K576" s="32"/>
       <c r="L576" s="32"/>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12">
       <c r="A577" s="32" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B577" s="32"/>
       <c r="D577" s="32"/>
@@ -13292,9 +13289,9 @@
       <c r="K577" s="32"/>
       <c r="L577" s="32"/>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12">
       <c r="A578" s="32" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B578" s="32"/>
       <c r="D578" s="32"/>
@@ -13307,9 +13304,9 @@
       <c r="K578" s="32"/>
       <c r="L578" s="32"/>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12">
       <c r="A579" s="32" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B579" s="32"/>
       <c r="D579" s="32"/>
@@ -13322,9 +13319,9 @@
       <c r="K579" s="32"/>
       <c r="L579" s="32"/>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12">
       <c r="A580" s="32" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="B580" s="32"/>
       <c r="D580" s="32"/>
@@ -13337,9 +13334,9 @@
       <c r="K580" s="32"/>
       <c r="L580" s="32"/>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12">
       <c r="A581" s="32" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B581" s="32"/>
       <c r="D581" s="32"/>
@@ -13352,9 +13349,9 @@
       <c r="K581" s="32"/>
       <c r="L581" s="32"/>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12">
       <c r="A582" s="32" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B582" s="32"/>
       <c r="D582" s="32"/>
@@ -13367,9 +13364,9 @@
       <c r="K582" s="32"/>
       <c r="L582" s="32"/>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12">
       <c r="A583" s="32" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="B583" s="32"/>
       <c r="D583" s="32"/>
@@ -13382,9 +13379,9 @@
       <c r="K583" s="32"/>
       <c r="L583" s="32"/>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12">
       <c r="A584" s="32" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B584" s="32"/>
       <c r="D584" s="32"/>
@@ -13397,9 +13394,9 @@
       <c r="K584" s="32"/>
       <c r="L584" s="32"/>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12">
       <c r="A585" s="32" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B585" s="32"/>
       <c r="D585" s="32"/>
@@ -13412,9 +13409,9 @@
       <c r="K585" s="32"/>
       <c r="L585" s="32"/>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12">
       <c r="A586" s="32" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B586" s="32"/>
       <c r="D586" s="32"/>
@@ -13427,9 +13424,9 @@
       <c r="K586" s="32"/>
       <c r="L586" s="32"/>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12">
       <c r="A587" s="32" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B587" s="32"/>
       <c r="D587" s="32"/>
@@ -13442,9 +13439,9 @@
       <c r="K587" s="32"/>
       <c r="L587" s="32"/>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12">
       <c r="A588" s="32" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B588" s="32"/>
       <c r="D588" s="32"/>
@@ -13457,9 +13454,9 @@
       <c r="K588" s="32"/>
       <c r="L588" s="32"/>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12">
       <c r="A589" s="32" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B589" s="32"/>
       <c r="D589" s="32"/>
@@ -13472,9 +13469,9 @@
       <c r="K589" s="32"/>
       <c r="L589" s="32"/>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12">
       <c r="A590" s="32" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B590" s="32"/>
       <c r="D590" s="32"/>
@@ -13487,9 +13484,9 @@
       <c r="K590" s="32"/>
       <c r="L590" s="32"/>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12">
       <c r="A591" s="32" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B591" s="32"/>
       <c r="D591" s="32"/>
@@ -13502,9 +13499,9 @@
       <c r="K591" s="32"/>
       <c r="L591" s="32"/>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12">
       <c r="A592" s="32" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B592" s="32"/>
       <c r="D592" s="32"/>
@@ -13517,9 +13514,9 @@
       <c r="K592" s="32"/>
       <c r="L592" s="32"/>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12">
       <c r="A593" s="32" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B593" s="32"/>
       <c r="D593" s="32"/>
@@ -13532,9 +13529,9 @@
       <c r="K593" s="32"/>
       <c r="L593" s="32"/>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12">
       <c r="A594" s="32" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B594" s="32"/>
       <c r="D594" s="32"/>
@@ -13547,9 +13544,9 @@
       <c r="K594" s="32"/>
       <c r="L594" s="32"/>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12">
       <c r="A595" s="32" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B595" s="32"/>
       <c r="D595" s="32"/>
@@ -13562,9 +13559,9 @@
       <c r="K595" s="32"/>
       <c r="L595" s="32"/>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12">
       <c r="A596" s="32" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B596" s="32"/>
       <c r="D596" s="32"/>
@@ -13577,9 +13574,9 @@
       <c r="K596" s="32"/>
       <c r="L596" s="32"/>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12">
       <c r="A597" s="32" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B597" s="32"/>
       <c r="D597" s="32"/>
@@ -13592,9 +13589,9 @@
       <c r="K597" s="32"/>
       <c r="L597" s="32"/>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12">
       <c r="A598" s="32" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B598" s="32"/>
       <c r="D598" s="32"/>
@@ -13607,9 +13604,9 @@
       <c r="K598" s="32"/>
       <c r="L598" s="32"/>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12">
       <c r="A599" s="32" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B599" s="32"/>
       <c r="D599" s="32"/>
@@ -13622,9 +13619,9 @@
       <c r="K599" s="32"/>
       <c r="L599" s="32"/>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12">
       <c r="A600" s="32" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B600" s="32"/>
       <c r="D600" s="32"/>
@@ -13637,9 +13634,9 @@
       <c r="K600" s="32"/>
       <c r="L600" s="32"/>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12">
       <c r="A601" s="32" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B601" s="32"/>
       <c r="D601" s="32"/>
@@ -13652,9 +13649,9 @@
       <c r="K601" s="32"/>
       <c r="L601" s="32"/>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12">
       <c r="A602" s="32" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B602" s="32"/>
       <c r="D602" s="32"/>
@@ -13667,9 +13664,9 @@
       <c r="K602" s="32"/>
       <c r="L602" s="32"/>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12">
       <c r="A603" s="32" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B603" s="32"/>
       <c r="D603" s="32"/>
@@ -13682,9 +13679,9 @@
       <c r="K603" s="32"/>
       <c r="L603" s="32"/>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12">
       <c r="A604" s="32" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B604" s="32"/>
       <c r="D604" s="32"/>
@@ -13697,9 +13694,9 @@
       <c r="K604" s="32"/>
       <c r="L604" s="32"/>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12">
       <c r="A605" s="32" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B605" s="32"/>
       <c r="D605" s="32"/>
@@ -13712,9 +13709,9 @@
       <c r="K605" s="32"/>
       <c r="L605" s="32"/>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12">
       <c r="A606" s="32" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B606" s="32"/>
       <c r="D606" s="32"/>
@@ -13727,9 +13724,9 @@
       <c r="K606" s="32"/>
       <c r="L606" s="32"/>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12">
       <c r="A607" s="32" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B607" s="32"/>
       <c r="D607" s="32"/>
@@ -13742,9 +13739,9 @@
       <c r="K607" s="32"/>
       <c r="L607" s="32"/>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12">
       <c r="A608" s="32" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B608" s="32"/>
       <c r="D608" s="32"/>
@@ -13757,9 +13754,9 @@
       <c r="K608" s="32"/>
       <c r="L608" s="32"/>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12">
       <c r="A609" s="32" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B609" s="32"/>
       <c r="D609" s="32"/>
@@ -13772,9 +13769,9 @@
       <c r="K609" s="32"/>
       <c r="L609" s="32"/>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12">
       <c r="A610" s="32" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B610" s="32"/>
       <c r="D610" s="32"/>
@@ -13787,9 +13784,9 @@
       <c r="K610" s="32"/>
       <c r="L610" s="32"/>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12">
       <c r="A611" s="32" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B611" s="32"/>
       <c r="D611" s="32"/>
@@ -13802,9 +13799,9 @@
       <c r="K611" s="32"/>
       <c r="L611" s="32"/>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12">
       <c r="A612" s="32" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B612" s="32"/>
       <c r="D612" s="32"/>
@@ -13817,9 +13814,9 @@
       <c r="K612" s="32"/>
       <c r="L612" s="32"/>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12">
       <c r="A613" s="32" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B613" s="32"/>
       <c r="D613" s="32"/>
@@ -13832,9 +13829,9 @@
       <c r="K613" s="32"/>
       <c r="L613" s="32"/>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12">
       <c r="A614" s="32" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B614" s="32"/>
       <c r="D614" s="32"/>
@@ -13847,9 +13844,9 @@
       <c r="K614" s="32"/>
       <c r="L614" s="32"/>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12">
       <c r="A615" s="32" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B615" s="32"/>
       <c r="D615" s="32"/>
@@ -13862,9 +13859,9 @@
       <c r="K615" s="32"/>
       <c r="L615" s="32"/>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12">
       <c r="A616" s="32" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B616" s="32"/>
       <c r="D616" s="32"/>
@@ -13877,9 +13874,9 @@
       <c r="K616" s="32"/>
       <c r="L616" s="32"/>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12">
       <c r="A617" s="32" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B617" s="32"/>
       <c r="D617" s="32"/>
@@ -13892,9 +13889,9 @@
       <c r="K617" s="32"/>
       <c r="L617" s="32"/>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12">
       <c r="A618" s="32" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B618" s="32"/>
       <c r="D618" s="32"/>
@@ -13907,9 +13904,9 @@
       <c r="K618" s="32"/>
       <c r="L618" s="32"/>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12">
       <c r="A619" s="32" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B619" s="32"/>
       <c r="D619" s="32"/>
@@ -13922,9 +13919,9 @@
       <c r="K619" s="32"/>
       <c r="L619" s="32"/>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12">
       <c r="A620" s="32" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B620" s="32"/>
       <c r="D620" s="32"/>
@@ -13937,9 +13934,9 @@
       <c r="K620" s="32"/>
       <c r="L620" s="32"/>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12">
       <c r="A621" s="32" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B621" s="32"/>
       <c r="D621" s="32"/>
@@ -13952,9 +13949,9 @@
       <c r="K621" s="32"/>
       <c r="L621" s="32"/>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12">
       <c r="A622" s="32" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B622" s="32"/>
       <c r="D622" s="32"/>
@@ -13967,9 +13964,9 @@
       <c r="K622" s="32"/>
       <c r="L622" s="32"/>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12">
       <c r="A623" s="32" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B623" s="32"/>
       <c r="D623" s="32"/>
@@ -13982,9 +13979,9 @@
       <c r="K623" s="32"/>
       <c r="L623" s="32"/>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12">
       <c r="A624" s="32" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B624" s="32"/>
       <c r="D624" s="32"/>
@@ -13997,9 +13994,9 @@
       <c r="K624" s="32"/>
       <c r="L624" s="32"/>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12">
       <c r="A625" s="32" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B625" s="32"/>
       <c r="D625" s="32"/>
@@ -14012,9 +14009,9 @@
       <c r="K625" s="32"/>
       <c r="L625" s="32"/>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12">
       <c r="A626" s="32" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B626" s="32"/>
       <c r="D626" s="32"/>
@@ -14027,9 +14024,9 @@
       <c r="K626" s="32"/>
       <c r="L626" s="32"/>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12">
       <c r="A627" s="32" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B627" s="32"/>
       <c r="D627" s="32"/>
@@ -14042,9 +14039,9 @@
       <c r="K627" s="32"/>
       <c r="L627" s="32"/>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12">
       <c r="A628" s="32" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B628" s="32"/>
       <c r="D628" s="32"/>
@@ -14057,9 +14054,9 @@
       <c r="K628" s="32"/>
       <c r="L628" s="32"/>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12">
       <c r="A629" s="32" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B629" s="32"/>
       <c r="D629" s="32"/>
@@ -14072,9 +14069,9 @@
       <c r="K629" s="32"/>
       <c r="L629" s="32"/>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12">
       <c r="A630" s="32" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B630" s="32"/>
       <c r="D630" s="32"/>
@@ -14087,9 +14084,9 @@
       <c r="K630" s="32"/>
       <c r="L630" s="32"/>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12">
       <c r="A631" s="32" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B631" s="32"/>
       <c r="D631" s="32"/>
@@ -14102,9 +14099,9 @@
       <c r="K631" s="32"/>
       <c r="L631" s="32"/>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12">
       <c r="A632" s="32" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B632" s="32"/>
       <c r="D632" s="32"/>
@@ -14117,9 +14114,9 @@
       <c r="K632" s="32"/>
       <c r="L632" s="32"/>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12">
       <c r="A633" s="32" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B633" s="32"/>
       <c r="D633" s="32"/>
@@ -14132,9 +14129,9 @@
       <c r="K633" s="32"/>
       <c r="L633" s="32"/>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12">
       <c r="A634" s="32" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B634" s="32"/>
       <c r="D634" s="32"/>
@@ -14147,9 +14144,9 @@
       <c r="K634" s="32"/>
       <c r="L634" s="32"/>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12">
       <c r="A635" s="32" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B635" s="32"/>
       <c r="D635" s="32"/>
@@ -14162,9 +14159,9 @@
       <c r="K635" s="32"/>
       <c r="L635" s="32"/>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12">
       <c r="A636" s="32" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B636" s="32"/>
       <c r="D636" s="32"/>
@@ -14177,9 +14174,9 @@
       <c r="K636" s="32"/>
       <c r="L636" s="32"/>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12">
       <c r="A637" s="32" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B637" s="32"/>
       <c r="D637" s="32"/>
@@ -14192,9 +14189,9 @@
       <c r="K637" s="32"/>
       <c r="L637" s="32"/>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12">
       <c r="A638" s="32" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B638" s="32"/>
       <c r="D638" s="32"/>
@@ -14207,9 +14204,9 @@
       <c r="K638" s="32"/>
       <c r="L638" s="32"/>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12">
       <c r="A639" s="32" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B639" s="32"/>
       <c r="D639" s="32"/>
@@ -14222,9 +14219,9 @@
       <c r="K639" s="32"/>
       <c r="L639" s="32"/>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12">
       <c r="A640" s="32" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="B640" s="32"/>
       <c r="D640" s="32"/>
@@ -14237,9 +14234,9 @@
       <c r="K640" s="32"/>
       <c r="L640" s="32"/>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12">
       <c r="A641" s="32" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="B641" s="32"/>
       <c r="D641" s="32"/>
@@ -14252,9 +14249,9 @@
       <c r="K641" s="32"/>
       <c r="L641" s="32"/>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12">
       <c r="A642" s="32" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B642" s="32"/>
       <c r="D642" s="32"/>
@@ -14267,9 +14264,9 @@
       <c r="K642" s="32"/>
       <c r="L642" s="32"/>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12">
       <c r="A643" s="32" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B643" s="32"/>
       <c r="D643" s="32"/>
@@ -14282,9 +14279,9 @@
       <c r="K643" s="32"/>
       <c r="L643" s="32"/>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12">
       <c r="A644" s="32" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B644" s="32"/>
       <c r="D644" s="32"/>
@@ -14297,9 +14294,9 @@
       <c r="K644" s="32"/>
       <c r="L644" s="32"/>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12">
       <c r="A645" s="32" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="B645" s="32"/>
       <c r="D645" s="32"/>
@@ -14312,9 +14309,9 @@
       <c r="K645" s="32"/>
       <c r="L645" s="32"/>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12">
       <c r="A646" s="32" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B646" s="32"/>
       <c r="D646" s="32"/>
@@ -14327,9 +14324,9 @@
       <c r="K646" s="32"/>
       <c r="L646" s="32"/>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12">
       <c r="A647" s="32" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B647" s="32"/>
       <c r="D647" s="32"/>
@@ -14342,9 +14339,9 @@
       <c r="K647" s="32"/>
       <c r="L647" s="32"/>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12">
       <c r="A648" s="32" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B648" s="32"/>
       <c r="D648" s="32"/>
@@ -14357,9 +14354,9 @@
       <c r="K648" s="32"/>
       <c r="L648" s="32"/>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12">
       <c r="A649" s="32" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B649" s="32"/>
       <c r="D649" s="32"/>
@@ -14372,9 +14369,9 @@
       <c r="K649" s="32"/>
       <c r="L649" s="32"/>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12">
       <c r="A650" s="32" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B650" s="32"/>
       <c r="D650" s="32"/>
@@ -14387,9 +14384,9 @@
       <c r="K650" s="32"/>
       <c r="L650" s="32"/>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12">
       <c r="A651" s="32" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B651" s="32"/>
       <c r="D651" s="32"/>
@@ -14402,9 +14399,9 @@
       <c r="K651" s="32"/>
       <c r="L651" s="32"/>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12">
       <c r="A652" s="32" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B652" s="32"/>
       <c r="D652" s="32"/>
@@ -14417,9 +14414,9 @@
       <c r="K652" s="32"/>
       <c r="L652" s="32"/>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12">
       <c r="A653" s="32" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B653" s="32"/>
       <c r="D653" s="32"/>
@@ -14432,9 +14429,9 @@
       <c r="K653" s="32"/>
       <c r="L653" s="32"/>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12">
       <c r="A654" s="32" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B654" s="32"/>
       <c r="D654" s="32"/>
@@ -14447,9 +14444,9 @@
       <c r="K654" s="32"/>
       <c r="L654" s="32"/>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12">
       <c r="A655" s="32" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B655" s="32"/>
       <c r="D655" s="32"/>
@@ -14462,9 +14459,9 @@
       <c r="K655" s="32"/>
       <c r="L655" s="32"/>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12">
       <c r="A656" s="32" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B656" s="32"/>
       <c r="D656" s="32"/>
@@ -14477,9 +14474,9 @@
       <c r="K656" s="32"/>
       <c r="L656" s="32"/>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12">
       <c r="A657" s="32" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B657" s="32"/>
       <c r="D657" s="32"/>
@@ -14492,9 +14489,9 @@
       <c r="K657" s="32"/>
       <c r="L657" s="32"/>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12">
       <c r="A658" s="32" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B658" s="32"/>
       <c r="D658" s="32"/>
@@ -14507,9 +14504,9 @@
       <c r="K658" s="32"/>
       <c r="L658" s="32"/>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12">
       <c r="A659" s="32" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B659" s="32"/>
       <c r="D659" s="32"/>
@@ -14522,9 +14519,9 @@
       <c r="K659" s="32"/>
       <c r="L659" s="32"/>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12">
       <c r="A660" s="32" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="B660" s="32"/>
       <c r="D660" s="32"/>
@@ -14537,9 +14534,9 @@
       <c r="K660" s="32"/>
       <c r="L660" s="32"/>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12">
       <c r="A661" s="32" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B661" s="32"/>
       <c r="D661" s="32"/>
@@ -14552,9 +14549,9 @@
       <c r="K661" s="32"/>
       <c r="L661" s="32"/>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12">
       <c r="A662" s="32" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B662" s="32"/>
       <c r="D662" s="32"/>
@@ -14567,9 +14564,9 @@
       <c r="K662" s="32"/>
       <c r="L662" s="32"/>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12">
       <c r="A663" s="32" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B663" s="32"/>
       <c r="D663" s="32"/>
@@ -14582,9 +14579,9 @@
       <c r="K663" s="32"/>
       <c r="L663" s="32"/>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12">
       <c r="A664" s="32" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B664" s="32"/>
       <c r="D664" s="32"/>
@@ -14597,9 +14594,9 @@
       <c r="K664" s="32"/>
       <c r="L664" s="32"/>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12">
       <c r="A665" s="32" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B665" s="32"/>
       <c r="D665" s="32"/>
@@ -14612,9 +14609,9 @@
       <c r="K665" s="32"/>
       <c r="L665" s="32"/>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12">
       <c r="A666" s="32" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B666" s="32"/>
       <c r="D666" s="32"/>
@@ -14627,9 +14624,9 @@
       <c r="K666" s="32"/>
       <c r="L666" s="32"/>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12">
       <c r="A667" s="32" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B667" s="32"/>
       <c r="D667" s="32"/>
@@ -14642,9 +14639,9 @@
       <c r="K667" s="32"/>
       <c r="L667" s="32"/>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12">
       <c r="A668" s="32" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B668" s="32"/>
       <c r="D668" s="32"/>
@@ -14657,9 +14654,9 @@
       <c r="K668" s="32"/>
       <c r="L668" s="32"/>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12">
       <c r="A669" s="32" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B669" s="32"/>
       <c r="D669" s="32"/>
@@ -14672,9 +14669,9 @@
       <c r="K669" s="32"/>
       <c r="L669" s="32"/>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12">
       <c r="A670" s="32" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B670" s="32"/>
       <c r="D670" s="32"/>
@@ -14687,9 +14684,9 @@
       <c r="K670" s="32"/>
       <c r="L670" s="32"/>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12">
       <c r="A671" s="32" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B671" s="32"/>
       <c r="D671" s="32"/>
@@ -14702,9 +14699,9 @@
       <c r="K671" s="32"/>
       <c r="L671" s="32"/>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12">
       <c r="A672" s="32" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B672" s="32"/>
       <c r="D672" s="32"/>
@@ -14717,9 +14714,9 @@
       <c r="K672" s="32"/>
       <c r="L672" s="32"/>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12">
       <c r="A673" s="32" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B673" s="32"/>
       <c r="D673" s="32"/>
@@ -14732,9 +14729,9 @@
       <c r="K673" s="32"/>
       <c r="L673" s="32"/>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12">
       <c r="A674" s="32" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B674" s="32"/>
       <c r="D674" s="32"/>
@@ -14747,9 +14744,9 @@
       <c r="K674" s="32"/>
       <c r="L674" s="32"/>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12">
       <c r="A675" s="32" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B675" s="32"/>
       <c r="D675" s="32"/>
@@ -14762,9 +14759,9 @@
       <c r="K675" s="32"/>
       <c r="L675" s="32"/>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12">
       <c r="A676" s="32" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B676" s="32"/>
       <c r="D676" s="32"/>
@@ -14777,9 +14774,9 @@
       <c r="K676" s="32"/>
       <c r="L676" s="32"/>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12">
       <c r="A677" s="32" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B677" s="32"/>
       <c r="D677" s="32"/>
@@ -14792,9 +14789,9 @@
       <c r="K677" s="32"/>
       <c r="L677" s="32"/>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12">
       <c r="A678" s="32" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B678" s="32"/>
       <c r="D678" s="32"/>
@@ -14807,9 +14804,9 @@
       <c r="K678" s="32"/>
       <c r="L678" s="32"/>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12">
       <c r="A679" s="32" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B679" s="32"/>
       <c r="D679" s="32"/>
@@ -14822,9 +14819,9 @@
       <c r="K679" s="32"/>
       <c r="L679" s="32"/>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12">
       <c r="A680" s="32" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B680" s="32"/>
       <c r="D680" s="32"/>
@@ -14837,9 +14834,9 @@
       <c r="K680" s="32"/>
       <c r="L680" s="32"/>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12">
       <c r="A681" s="32" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B681" s="32"/>
       <c r="D681" s="32"/>
@@ -14852,9 +14849,9 @@
       <c r="K681" s="32"/>
       <c r="L681" s="32"/>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12">
       <c r="A682" s="32" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B682" s="32"/>
       <c r="D682" s="32"/>
@@ -14867,9 +14864,9 @@
       <c r="K682" s="32"/>
       <c r="L682" s="32"/>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12">
       <c r="A683" s="32" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B683" s="32"/>
       <c r="D683" s="32"/>
@@ -14882,9 +14879,9 @@
       <c r="K683" s="32"/>
       <c r="L683" s="32"/>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12">
       <c r="A684" s="32" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B684" s="32"/>
       <c r="D684" s="32"/>
@@ -14897,9 +14894,9 @@
       <c r="K684" s="32"/>
       <c r="L684" s="32"/>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12">
       <c r="A685" s="32" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B685" s="32"/>
       <c r="D685" s="32"/>
@@ -14912,9 +14909,9 @@
       <c r="K685" s="32"/>
       <c r="L685" s="32"/>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12">
       <c r="A686" s="32" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B686" s="32"/>
       <c r="D686" s="32"/>
@@ -14927,9 +14924,9 @@
       <c r="K686" s="32"/>
       <c r="L686" s="32"/>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12">
       <c r="A687" s="32" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B687" s="32"/>
       <c r="D687" s="32"/>
@@ -14942,9 +14939,9 @@
       <c r="K687" s="32"/>
       <c r="L687" s="32"/>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12">
       <c r="A688" s="32" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B688" s="32"/>
       <c r="D688" s="32"/>
@@ -14957,9 +14954,9 @@
       <c r="K688" s="32"/>
       <c r="L688" s="32"/>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12">
       <c r="A689" s="32" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B689" s="32"/>
       <c r="D689" s="32"/>
@@ -14972,9 +14969,9 @@
       <c r="K689" s="32"/>
       <c r="L689" s="32"/>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12">
       <c r="A690" s="32" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B690" s="32"/>
       <c r="D690" s="32"/>
@@ -14987,9 +14984,9 @@
       <c r="K690" s="32"/>
       <c r="L690" s="32"/>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12">
       <c r="A691" s="32" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B691" s="32"/>
       <c r="D691" s="32"/>
@@ -15002,9 +14999,9 @@
       <c r="K691" s="32"/>
       <c r="L691" s="32"/>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12">
       <c r="A692" s="32" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="B692" s="32"/>
       <c r="D692" s="32"/>
@@ -15017,9 +15014,9 @@
       <c r="K692" s="32"/>
       <c r="L692" s="32"/>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12">
       <c r="A693" s="32" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B693" s="32"/>
       <c r="D693" s="32"/>
@@ -15032,9 +15029,9 @@
       <c r="K693" s="32"/>
       <c r="L693" s="32"/>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12">
       <c r="A694" s="32" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B694" s="32"/>
       <c r="D694" s="32"/>
@@ -15047,9 +15044,9 @@
       <c r="K694" s="32"/>
       <c r="L694" s="32"/>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12">
       <c r="A695" s="32" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B695" s="32"/>
       <c r="D695" s="32"/>
@@ -15062,9 +15059,9 @@
       <c r="K695" s="32"/>
       <c r="L695" s="32"/>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12">
       <c r="A696" s="32" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B696" s="32"/>
       <c r="D696" s="32"/>
@@ -15077,9 +15074,9 @@
       <c r="K696" s="32"/>
       <c r="L696" s="32"/>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12">
       <c r="A697" s="32" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B697" s="32"/>
       <c r="D697" s="32"/>
@@ -15092,9 +15089,9 @@
       <c r="K697" s="32"/>
       <c r="L697" s="32"/>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12">
       <c r="A698" s="32" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B698" s="32"/>
       <c r="D698" s="32"/>
@@ -15107,9 +15104,9 @@
       <c r="K698" s="32"/>
       <c r="L698" s="32"/>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12">
       <c r="A699" s="32" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="B699" s="32"/>
       <c r="D699" s="32"/>
@@ -15122,9 +15119,9 @@
       <c r="K699" s="32"/>
       <c r="L699" s="32"/>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12">
       <c r="A700" s="32" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B700" s="32"/>
       <c r="D700" s="32"/>
@@ -15137,9 +15134,9 @@
       <c r="K700" s="32"/>
       <c r="L700" s="32"/>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12">
       <c r="A701" s="32" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B701" s="32"/>
       <c r="D701" s="32"/>
@@ -15152,9 +15149,9 @@
       <c r="K701" s="32"/>
       <c r="L701" s="32"/>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12">
       <c r="A702" s="32" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="B702" s="32"/>
       <c r="D702" s="32"/>
@@ -15167,9 +15164,9 @@
       <c r="K702" s="32"/>
       <c r="L702" s="32"/>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12">
       <c r="A703" s="32" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B703" s="32"/>
       <c r="D703" s="32"/>
@@ -15182,9 +15179,9 @@
       <c r="K703" s="32"/>
       <c r="L703" s="32"/>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12">
       <c r="A704" s="32" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B704" s="32"/>
       <c r="D704" s="32"/>
@@ -15197,9 +15194,9 @@
       <c r="K704" s="32"/>
       <c r="L704" s="32"/>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12">
       <c r="A705" s="32" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B705" s="32"/>
       <c r="D705" s="32"/>
@@ -15212,9 +15209,9 @@
       <c r="K705" s="32"/>
       <c r="L705" s="32"/>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12">
       <c r="A706" s="32" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B706" s="32"/>
       <c r="D706" s="32"/>
@@ -15227,9 +15224,9 @@
       <c r="K706" s="32"/>
       <c r="L706" s="32"/>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12">
       <c r="A707" s="32" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B707" s="32"/>
       <c r="D707" s="32"/>
@@ -15242,9 +15239,9 @@
       <c r="K707" s="32"/>
       <c r="L707" s="32"/>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12">
       <c r="A708" s="32" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B708" s="32"/>
       <c r="D708" s="32"/>
@@ -15257,9 +15254,9 @@
       <c r="K708" s="32"/>
       <c r="L708" s="32"/>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12">
       <c r="A709" s="32" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B709" s="32"/>
       <c r="D709" s="32"/>
@@ -15272,9 +15269,9 @@
       <c r="K709" s="32"/>
       <c r="L709" s="32"/>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12">
       <c r="A710" s="32" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B710" s="32"/>
       <c r="D710" s="32"/>
@@ -15287,9 +15284,9 @@
       <c r="K710" s="32"/>
       <c r="L710" s="32"/>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12">
       <c r="A711" s="32" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B711" s="32"/>
       <c r="D711" s="32"/>
@@ -15302,9 +15299,9 @@
       <c r="K711" s="32"/>
       <c r="L711" s="32"/>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12">
       <c r="A712" s="32" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B712" s="32"/>
       <c r="D712" s="32"/>
@@ -15317,9 +15314,9 @@
       <c r="K712" s="32"/>
       <c r="L712" s="32"/>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12">
       <c r="A713" s="32" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B713" s="32"/>
       <c r="D713" s="32"/>
@@ -15332,9 +15329,9 @@
       <c r="K713" s="32"/>
       <c r="L713" s="32"/>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12">
       <c r="A714" s="32" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="B714" s="32"/>
       <c r="D714" s="32"/>
@@ -15347,9 +15344,9 @@
       <c r="K714" s="32"/>
       <c r="L714" s="32"/>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12">
       <c r="A715" s="32" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="B715" s="32"/>
       <c r="D715" s="32"/>
@@ -15362,9 +15359,9 @@
       <c r="K715" s="32"/>
       <c r="L715" s="32"/>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12">
       <c r="A716" s="32" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B716" s="32"/>
       <c r="D716" s="32"/>
@@ -15377,9 +15374,9 @@
       <c r="K716" s="32"/>
       <c r="L716" s="32"/>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12">
       <c r="A717" s="32" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="B717" s="32"/>
       <c r="D717" s="32"/>
@@ -15392,9 +15389,9 @@
       <c r="K717" s="32"/>
       <c r="L717" s="32"/>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12">
       <c r="A718" s="32" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B718" s="32"/>
       <c r="D718" s="32"/>
@@ -15407,9 +15404,9 @@
       <c r="K718" s="32"/>
       <c r="L718" s="32"/>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12">
       <c r="A719" s="32" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B719" s="32"/>
       <c r="D719" s="32"/>
@@ -15422,9 +15419,9 @@
       <c r="K719" s="32"/>
       <c r="L719" s="32"/>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12">
       <c r="A720" s="32" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B720" s="32"/>
       <c r="D720" s="32"/>
@@ -15437,9 +15434,9 @@
       <c r="K720" s="32"/>
       <c r="L720" s="32"/>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12">
       <c r="A721" s="32" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B721" s="32"/>
       <c r="D721" s="32"/>
@@ -15452,9 +15449,9 @@
       <c r="K721" s="32"/>
       <c r="L721" s="32"/>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12">
       <c r="A722" s="32" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B722" s="32"/>
       <c r="D722" s="32"/>
@@ -15467,9 +15464,9 @@
       <c r="K722" s="32"/>
       <c r="L722" s="32"/>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12">
       <c r="A723" s="32" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="B723" s="32"/>
       <c r="D723" s="32"/>
@@ -15482,9 +15479,9 @@
       <c r="K723" s="32"/>
       <c r="L723" s="32"/>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12">
       <c r="A724" s="32" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B724" s="32"/>
       <c r="D724" s="32"/>
@@ -15497,9 +15494,9 @@
       <c r="K724" s="32"/>
       <c r="L724" s="32"/>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:12">
       <c r="A725" s="32" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="B725" s="32"/>
       <c r="D725" s="32"/>
@@ -15512,9 +15509,9 @@
       <c r="K725" s="32"/>
       <c r="L725" s="32"/>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:12">
       <c r="A726" s="32" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B726" s="32"/>
       <c r="D726" s="32"/>
@@ -15527,9 +15524,9 @@
       <c r="K726" s="32"/>
       <c r="L726" s="32"/>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:12">
       <c r="A727" s="32" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B727" s="32"/>
       <c r="D727" s="32"/>
@@ -15542,9 +15539,9 @@
       <c r="K727" s="32"/>
       <c r="L727" s="32"/>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:12">
       <c r="A728" s="32" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B728" s="32"/>
       <c r="D728" s="32"/>
@@ -15557,9 +15554,9 @@
       <c r="K728" s="32"/>
       <c r="L728" s="32"/>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:12">
       <c r="A729" s="32" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B729" s="32"/>
       <c r="D729" s="32"/>
@@ -15572,9 +15569,9 @@
       <c r="K729" s="32"/>
       <c r="L729" s="32"/>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:12">
       <c r="A730" s="32" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B730" s="32"/>
       <c r="D730" s="32"/>
@@ -15587,9 +15584,9 @@
       <c r="K730" s="32"/>
       <c r="L730" s="32"/>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:12">
       <c r="A731" s="32" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B731" s="32"/>
       <c r="D731" s="32"/>
@@ -15602,9 +15599,9 @@
       <c r="K731" s="32"/>
       <c r="L731" s="32"/>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:12">
       <c r="A732" s="32" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B732" s="32"/>
       <c r="D732" s="32"/>
@@ -15617,9 +15614,9 @@
       <c r="K732" s="32"/>
       <c r="L732" s="32"/>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:12">
       <c r="A733" s="32" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B733" s="32"/>
       <c r="D733" s="32"/>
@@ -15632,9 +15629,9 @@
       <c r="K733" s="32"/>
       <c r="L733" s="32"/>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:12">
       <c r="A734" s="32" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B734" s="32"/>
       <c r="D734" s="32"/>
@@ -15647,9 +15644,9 @@
       <c r="K734" s="32"/>
       <c r="L734" s="32"/>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:12">
       <c r="A735" s="32" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B735" s="32"/>
       <c r="D735" s="32"/>
@@ -15662,9 +15659,9 @@
       <c r="K735" s="32"/>
       <c r="L735" s="32"/>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:12">
       <c r="A736" s="32" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B736" s="32"/>
       <c r="D736" s="32"/>
@@ -15677,9 +15674,9 @@
       <c r="K736" s="32"/>
       <c r="L736" s="32"/>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:12">
       <c r="A737" s="32" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="B737" s="32"/>
       <c r="D737" s="32"/>
@@ -15692,9 +15689,9 @@
       <c r="K737" s="32"/>
       <c r="L737" s="32"/>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:12">
       <c r="A738" s="32" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B738" s="32"/>
       <c r="D738" s="32"/>
@@ -15707,9 +15704,9 @@
       <c r="K738" s="32"/>
       <c r="L738" s="32"/>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:12">
       <c r="A739" s="32" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B739" s="32"/>
       <c r="D739" s="32"/>
@@ -15722,9 +15719,9 @@
       <c r="K739" s="32"/>
       <c r="L739" s="32"/>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:12">
       <c r="A740" s="32" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B740" s="32"/>
       <c r="D740" s="32"/>
@@ -15737,9 +15734,9 @@
       <c r="K740" s="32"/>
       <c r="L740" s="32"/>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:12">
       <c r="A741" s="32" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B741" s="32"/>
       <c r="D741" s="32"/>
@@ -15752,9 +15749,9 @@
       <c r="K741" s="32"/>
       <c r="L741" s="32"/>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:12">
       <c r="A742" s="32" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="B742" s="32"/>
       <c r="D742" s="32"/>
@@ -15767,9 +15764,9 @@
       <c r="K742" s="32"/>
       <c r="L742" s="32"/>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:12">
       <c r="A743" s="32" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="B743" s="32"/>
       <c r="D743" s="32"/>
@@ -15782,9 +15779,9 @@
       <c r="K743" s="32"/>
       <c r="L743" s="32"/>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:12">
       <c r="A744" s="32" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B744" s="32"/>
       <c r="D744" s="32"/>
@@ -15797,9 +15794,9 @@
       <c r="K744" s="32"/>
       <c r="L744" s="32"/>
     </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:12">
       <c r="A745" s="32" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B745" s="32"/>
       <c r="D745" s="32"/>
@@ -15812,9 +15809,9 @@
       <c r="K745" s="32"/>
       <c r="L745" s="32"/>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:12">
       <c r="A746" s="32" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B746" s="32"/>
       <c r="D746" s="32"/>
@@ -15827,9 +15824,9 @@
       <c r="K746" s="32"/>
       <c r="L746" s="32"/>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:12">
       <c r="A747" s="32" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B747" s="32"/>
       <c r="D747" s="32"/>
@@ -15842,9 +15839,9 @@
       <c r="K747" s="32"/>
       <c r="L747" s="32"/>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:12">
       <c r="A748" s="32" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B748" s="32"/>
       <c r="D748" s="32"/>
@@ -15857,9 +15854,9 @@
       <c r="K748" s="32"/>
       <c r="L748" s="32"/>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:12">
       <c r="A749" s="32" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B749" s="32"/>
       <c r="D749" s="32"/>
@@ -15872,9 +15869,9 @@
       <c r="K749" s="32"/>
       <c r="L749" s="32"/>
     </row>
-    <row r="750" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:12">
       <c r="A750" s="32" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B750" s="32"/>
       <c r="D750" s="32"/>
@@ -15887,7 +15884,7 @@
       <c r="K750" s="32"/>
       <c r="L750" s="32"/>
     </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:12">
       <c r="A751" s="32" t="b">
         <v>1</v>
       </c>
@@ -15902,9 +15899,9 @@
       <c r="K751" s="32"/>
       <c r="L751" s="32"/>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:12">
       <c r="A752" s="32" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B752" s="32"/>
       <c r="D752" s="32"/>
@@ -15917,9 +15914,9 @@
       <c r="K752" s="32"/>
       <c r="L752" s="32"/>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:12">
       <c r="A753" s="32" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B753" s="32"/>
       <c r="D753" s="32"/>
@@ -15932,9 +15929,9 @@
       <c r="K753" s="32"/>
       <c r="L753" s="32"/>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:12">
       <c r="A754" s="32" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B754" s="32"/>
       <c r="D754" s="32"/>
@@ -15947,9 +15944,9 @@
       <c r="K754" s="32"/>
       <c r="L754" s="32"/>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:12">
       <c r="A755" s="32" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B755" s="32"/>
       <c r="D755" s="32"/>
@@ -15962,9 +15959,9 @@
       <c r="K755" s="32"/>
       <c r="L755" s="32"/>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:12">
       <c r="A756" s="32" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B756" s="32"/>
       <c r="D756" s="32"/>
@@ -15977,9 +15974,9 @@
       <c r="K756" s="32"/>
       <c r="L756" s="32"/>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:12">
       <c r="A757" s="32" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B757" s="32"/>
       <c r="D757" s="32"/>
@@ -15992,9 +15989,9 @@
       <c r="K757" s="32"/>
       <c r="L757" s="32"/>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:12">
       <c r="A758" s="32" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B758" s="32"/>
       <c r="D758" s="32"/>
@@ -16007,9 +16004,9 @@
       <c r="K758" s="32"/>
       <c r="L758" s="32"/>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:12">
       <c r="A759" s="32" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B759" s="32"/>
       <c r="D759" s="32"/>
@@ -16022,9 +16019,9 @@
       <c r="K759" s="32"/>
       <c r="L759" s="32"/>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:12">
       <c r="A760" s="32" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B760" s="32"/>
       <c r="D760" s="32"/>
@@ -16037,9 +16034,9 @@
       <c r="K760" s="32"/>
       <c r="L760" s="32"/>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:12">
       <c r="A761" s="32" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B761" s="32"/>
       <c r="D761" s="32"/>
@@ -16052,9 +16049,9 @@
       <c r="K761" s="32"/>
       <c r="L761" s="32"/>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:12">
       <c r="A762" s="32" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B762" s="32"/>
       <c r="D762" s="32"/>
@@ -16067,9 +16064,9 @@
       <c r="K762" s="32"/>
       <c r="L762" s="32"/>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:12">
       <c r="A763" s="32" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B763" s="32"/>
       <c r="D763" s="32"/>
@@ -16082,9 +16079,9 @@
       <c r="K763" s="32"/>
       <c r="L763" s="32"/>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:12">
       <c r="A764" s="32" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B764" s="32"/>
       <c r="D764" s="32"/>
@@ -16097,9 +16094,9 @@
       <c r="K764" s="32"/>
       <c r="L764" s="32"/>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:12">
       <c r="A765" s="32" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B765" s="32"/>
       <c r="D765" s="32"/>
@@ -16112,9 +16109,9 @@
       <c r="K765" s="32"/>
       <c r="L765" s="32"/>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:12">
       <c r="A766" s="32" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B766" s="32"/>
       <c r="D766" s="32"/>
@@ -16127,9 +16124,9 @@
       <c r="K766" s="32"/>
       <c r="L766" s="32"/>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:12">
       <c r="A767" s="32" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B767" s="32"/>
       <c r="D767" s="32"/>
@@ -16142,9 +16139,9 @@
       <c r="K767" s="32"/>
       <c r="L767" s="32"/>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:12">
       <c r="A768" s="32" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B768" s="32"/>
       <c r="D768" s="32"/>
@@ -16157,9 +16154,9 @@
       <c r="K768" s="32"/>
       <c r="L768" s="32"/>
     </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:12">
       <c r="A769" s="32" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B769" s="32"/>
       <c r="D769" s="32"/>
@@ -16172,9 +16169,9 @@
       <c r="K769" s="32"/>
       <c r="L769" s="32"/>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:12">
       <c r="A770" s="32" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B770" s="32"/>
       <c r="D770" s="32"/>
@@ -16187,9 +16184,9 @@
       <c r="K770" s="32"/>
       <c r="L770" s="32"/>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:12">
       <c r="A771" s="32" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B771" s="32"/>
       <c r="D771" s="32"/>
@@ -16202,9 +16199,9 @@
       <c r="K771" s="32"/>
       <c r="L771" s="32"/>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:12">
       <c r="A772" s="32" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B772" s="32"/>
       <c r="D772" s="32"/>
@@ -16217,9 +16214,9 @@
       <c r="K772" s="32"/>
       <c r="L772" s="32"/>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:12">
       <c r="A773" s="32" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="B773" s="32"/>
       <c r="D773" s="32"/>
@@ -16232,9 +16229,9 @@
       <c r="K773" s="32"/>
       <c r="L773" s="32"/>
     </row>
-    <row r="774" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:12">
       <c r="A774" s="32" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="B774" s="32"/>
       <c r="D774" s="32"/>
@@ -16247,9 +16244,9 @@
       <c r="K774" s="32"/>
       <c r="L774" s="32"/>
     </row>
-    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:12">
       <c r="A775" s="32" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B775" s="32"/>
       <c r="D775" s="32"/>
@@ -16262,9 +16259,9 @@
       <c r="K775" s="32"/>
       <c r="L775" s="32"/>
     </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12">
       <c r="A776" s="32" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B776" s="32"/>
       <c r="D776" s="32"/>
@@ -16277,9 +16274,9 @@
       <c r="K776" s="32"/>
       <c r="L776" s="32"/>
     </row>
-    <row r="777" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12">
       <c r="A777" s="32" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="B777" s="32"/>
       <c r="D777" s="32"/>
@@ -16292,9 +16289,9 @@
       <c r="K777" s="32"/>
       <c r="L777" s="32"/>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:12">
       <c r="A778" s="32" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B778" s="32"/>
       <c r="D778" s="32"/>
@@ -16307,9 +16304,9 @@
       <c r="K778" s="32"/>
       <c r="L778" s="32"/>
     </row>
-    <row r="779" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:12">
       <c r="A779" s="32" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="B779" s="32"/>
       <c r="D779" s="32"/>
@@ -16322,9 +16319,9 @@
       <c r="K779" s="32"/>
       <c r="L779" s="32"/>
     </row>
-    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12">
       <c r="A780" s="32" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B780" s="32"/>
       <c r="D780" s="32"/>
@@ -16337,9 +16334,9 @@
       <c r="K780" s="32"/>
       <c r="L780" s="32"/>
     </row>
-    <row r="781" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:12">
       <c r="A781" s="32" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B781" s="32"/>
       <c r="D781" s="32"/>
@@ -16352,9 +16349,9 @@
       <c r="K781" s="32"/>
       <c r="L781" s="32"/>
     </row>
-    <row r="782" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:12">
       <c r="A782" s="32" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B782" s="32"/>
       <c r="D782" s="32"/>
@@ -16367,9 +16364,9 @@
       <c r="K782" s="32"/>
       <c r="L782" s="32"/>
     </row>
-    <row r="783" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:12">
       <c r="A783" s="32" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="B783" s="32"/>
       <c r="D783" s="32"/>
@@ -16382,9 +16379,9 @@
       <c r="K783" s="32"/>
       <c r="L783" s="32"/>
     </row>
-    <row r="784" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:12">
       <c r="A784" s="32" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="B784" s="32"/>
       <c r="D784" s="32"/>
@@ -16397,9 +16394,9 @@
       <c r="K784" s="32"/>
       <c r="L784" s="32"/>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12">
       <c r="A785" s="32" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B785" s="32"/>
       <c r="D785" s="32"/>
@@ -16412,9 +16409,9 @@
       <c r="K785" s="32"/>
       <c r="L785" s="32"/>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12">
       <c r="A786" s="32" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="B786" s="32"/>
       <c r="D786" s="32"/>
@@ -16427,9 +16424,9 @@
       <c r="K786" s="32"/>
       <c r="L786" s="32"/>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:12">
       <c r="A787" s="32" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="B787" s="32"/>
       <c r="D787" s="32"/>
@@ -16442,9 +16439,9 @@
       <c r="K787" s="32"/>
       <c r="L787" s="32"/>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:12">
       <c r="A788" s="32" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="B788" s="32"/>
       <c r="D788" s="32"/>
@@ -16457,9 +16454,9 @@
       <c r="K788" s="32"/>
       <c r="L788" s="32"/>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12">
       <c r="A789" s="32" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="B789" s="32"/>
       <c r="D789" s="32"/>
@@ -16472,9 +16469,9 @@
       <c r="K789" s="32"/>
       <c r="L789" s="32"/>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12">
       <c r="A790" s="32" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="B790" s="32"/>
       <c r="D790" s="32"/>
@@ -16487,9 +16484,9 @@
       <c r="K790" s="32"/>
       <c r="L790" s="32"/>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12">
       <c r="A791" s="32" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="B791" s="32"/>
       <c r="D791" s="32"/>
@@ -16502,9 +16499,9 @@
       <c r="K791" s="32"/>
       <c r="L791" s="32"/>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12">
       <c r="A792" s="32" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="B792" s="32"/>
       <c r="D792" s="32"/>
@@ -16517,9 +16514,9 @@
       <c r="K792" s="32"/>
       <c r="L792" s="32"/>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12">
       <c r="A793" s="32" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B793" s="32"/>
       <c r="D793" s="32"/>
@@ -16532,9 +16529,9 @@
       <c r="K793" s="32"/>
       <c r="L793" s="32"/>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12">
       <c r="A794" s="32" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="B794" s="32"/>
       <c r="D794" s="32"/>
@@ -16547,9 +16544,9 @@
       <c r="K794" s="32"/>
       <c r="L794" s="32"/>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12">
       <c r="A795" s="32" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="B795" s="32"/>
       <c r="D795" s="32"/>
